--- a/othello/player_prog/result/rate_excel/MCT.xlsx
+++ b/othello/player_prog/result/rate_excel/MCT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shukai3264/takao/othello/player_prog/result/board1rateT_MCT/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D1D4D5-9F77-8840-8C34-8C1E23028AC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3F4AEF-0A53-514F-8A53-75482DA62729}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -395,7 +395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
       <selection activeCell="B102" sqref="B102:J102"/>
     </sheetView>
   </sheetViews>
@@ -435,31 +435,31 @@
         <v>130</v>
       </c>
       <c r="B2">
-        <v>526.37096258593931</v>
+        <v>667.6506504442691</v>
       </c>
       <c r="C2">
-        <v>910.65066785718159</v>
+        <v>1091.9077378492791</v>
       </c>
       <c r="D2">
-        <v>923.71130055000106</v>
+        <v>1107.2837644036269</v>
       </c>
       <c r="E2">
-        <v>1019.13416490817</v>
+        <v>1210.2887034822729</v>
       </c>
       <c r="F2">
-        <v>1512.4930673154199</v>
+        <v>1797.34062464304</v>
       </c>
       <c r="G2">
-        <v>1841.047734776487</v>
+        <v>2179.380782119073</v>
       </c>
       <c r="H2">
-        <v>1165.6156034370481</v>
+        <v>1376.668611637265</v>
       </c>
       <c r="I2">
-        <v>1535.5208316134349</v>
+        <v>1818.3343986379689</v>
       </c>
       <c r="J2">
-        <v>1906.148569621959</v>
+        <v>2251.1447267832041</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -467,31 +467,31 @@
         <v>452</v>
       </c>
       <c r="B3">
-        <v>6123.6548133239603</v>
+        <v>569.3647875446992</v>
       </c>
       <c r="C3">
-        <v>13549.6850206895</v>
+        <v>1019.390309833492</v>
       </c>
       <c r="D3">
-        <v>26559.669843425021</v>
+        <v>1127.6961392351579</v>
       </c>
       <c r="E3">
-        <v>17739.246898371741</v>
+        <v>1188.5520541940321</v>
       </c>
       <c r="F3">
-        <v>32007.2141574128</v>
+        <v>1835.107906107271</v>
       </c>
       <c r="G3">
-        <v>40775.996929523862</v>
+        <v>2064.6284976275219</v>
       </c>
       <c r="H3">
-        <v>17050.61304584832</v>
+        <v>1371.4146811870701</v>
       </c>
       <c r="I3">
-        <v>36375.354134809859</v>
+        <v>1980.5584814790079</v>
       </c>
       <c r="J3">
-        <v>44539.221108518497</v>
+        <v>2343.2871427917471</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -499,31 +499,31 @@
         <v>789</v>
       </c>
       <c r="B4">
-        <v>428.62029189586542</v>
+        <v>655.09470144508862</v>
       </c>
       <c r="C4">
-        <v>779.23548531708866</v>
+        <v>1058.7919173722639</v>
       </c>
       <c r="D4">
-        <v>786.450001116056</v>
+        <v>1066.2789329756399</v>
       </c>
       <c r="E4">
-        <v>875.34208236835332</v>
+        <v>1171.3563120327999</v>
       </c>
       <c r="F4">
-        <v>1370.33662943073</v>
+        <v>1823.012970215728</v>
       </c>
       <c r="G4">
-        <v>1724.7164399289329</v>
+        <v>2255.4406292189042</v>
       </c>
       <c r="H4">
-        <v>1025.560228513687</v>
+        <v>1343.718273982591</v>
       </c>
       <c r="I4">
-        <v>1396.9353877235981</v>
+        <v>1856.7101783124169</v>
       </c>
       <c r="J4">
-        <v>1741.1924882326671</v>
+        <v>2269.596084444564</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -531,31 +531,31 @@
         <v>680</v>
       </c>
       <c r="B5">
-        <v>519.22097436648289</v>
+        <v>768.09049587702782</v>
       </c>
       <c r="C5">
-        <v>719.28384756755781</v>
+        <v>998.34968295847648</v>
       </c>
       <c r="D5">
-        <v>900.18561022385006</v>
+        <v>1209.860112638464</v>
       </c>
       <c r="E5">
-        <v>1040.6700834928581</v>
+        <v>1370.012531133844</v>
       </c>
       <c r="F5">
-        <v>1434.1898147525831</v>
+        <v>1872.877190269458</v>
       </c>
       <c r="G5">
-        <v>1658.109811762818</v>
+        <v>2148.622182296448</v>
       </c>
       <c r="H5">
-        <v>997.86259428798314</v>
+        <v>1322.605526978225</v>
       </c>
       <c r="I5">
-        <v>1285.185587311875</v>
+        <v>1674.814901637862</v>
       </c>
       <c r="J5">
-        <v>1646.988471964014</v>
+        <v>2134.7673762101922</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -563,31 +563,31 @@
         <v>891</v>
       </c>
       <c r="B6">
-        <v>520.04444135868857</v>
+        <v>769.30151341056012</v>
       </c>
       <c r="C6">
-        <v>719.97151923682247</v>
+        <v>999.43068289892494</v>
       </c>
       <c r="D6">
-        <v>903.46673225494635</v>
+        <v>1213.648760674173</v>
       </c>
       <c r="E6">
-        <v>1040.6875324405189</v>
+        <v>1370.000991963979</v>
       </c>
       <c r="F6">
-        <v>1428.7986697520009</v>
+        <v>1865.1680400582229</v>
       </c>
       <c r="G6">
-        <v>1661.7210347479211</v>
+        <v>2154.697517324847</v>
       </c>
       <c r="H6">
-        <v>997.92939212846704</v>
+        <v>1322.7502616302299</v>
       </c>
       <c r="I6">
-        <v>1282.1976223839019</v>
+        <v>1669.8196437515089</v>
       </c>
       <c r="J6">
-        <v>1646.8092682606521</v>
+        <v>2135.1825882875501</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -595,31 +595,31 @@
         <v>544</v>
       </c>
       <c r="B7">
-        <v>-4462.8765145389434</v>
+        <v>796.09383107385099</v>
       </c>
       <c r="C7">
-        <v>-4356.9248086993393</v>
+        <v>1156.075821539624</v>
       </c>
       <c r="D7">
-        <v>-4345.7165783889986</v>
+        <v>1234.8582101549489</v>
       </c>
       <c r="E7">
-        <v>-4310.7263334615218</v>
+        <v>1358.4236466689219</v>
       </c>
       <c r="F7">
-        <v>-4183.5563644875892</v>
+        <v>2009.0094522067541</v>
       </c>
       <c r="G7">
-        <v>-4204.0265391646744</v>
+        <v>2031.94988268457</v>
       </c>
       <c r="H7">
-        <v>-4283.8536083130402</v>
+        <v>1405.3278232891651</v>
       </c>
       <c r="I7">
-        <v>-4223.9259612721407</v>
+        <v>1681.170548740158</v>
       </c>
       <c r="J7">
-        <v>-4185.0972839777332</v>
+        <v>1827.090783642006</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -627,31 +627,31 @@
         <v>954</v>
       </c>
       <c r="B8">
-        <v>566.02264013890067</v>
+        <v>641.76939458225957</v>
       </c>
       <c r="C8">
-        <v>974.16183152617998</v>
+        <v>1074.788312227528</v>
       </c>
       <c r="D8">
-        <v>1018.701593363253</v>
+        <v>1119.926986857329</v>
       </c>
       <c r="E8">
-        <v>1097.166306239501</v>
+        <v>1204.8645062868111</v>
       </c>
       <c r="F8">
-        <v>1660.8551694308289</v>
+        <v>1825.030046891826</v>
       </c>
       <c r="G8">
-        <v>2047.4270288722539</v>
+        <v>2236.4835719758198</v>
       </c>
       <c r="H8">
-        <v>1256.219081948858</v>
+        <v>1371.1387051094689</v>
       </c>
       <c r="I8">
-        <v>1675.4264974304531</v>
+        <v>1842.53942083535</v>
       </c>
       <c r="J8">
-        <v>1998.6460376651389</v>
+        <v>2183.4590552336058</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -659,31 +659,31 @@
         <v>995</v>
       </c>
       <c r="B9">
-        <v>-184.1749149695919</v>
+        <v>649.87660194445584</v>
       </c>
       <c r="C9">
-        <v>105.0409769468277</v>
+        <v>1101.178587896899</v>
       </c>
       <c r="D9">
-        <v>110.31208264606541</v>
+        <v>1106.7521888918709</v>
       </c>
       <c r="E9">
-        <v>171.92392847590821</v>
+        <v>1199.3257818298559</v>
       </c>
       <c r="F9">
-        <v>511.91710628983162</v>
+        <v>1860.1822751410441</v>
       </c>
       <c r="G9">
-        <v>708.5442845234769</v>
+        <v>2194.8492675997741</v>
       </c>
       <c r="H9">
-        <v>263.46075381708522</v>
+        <v>1342.9212879245929</v>
       </c>
       <c r="I9">
-        <v>496.97271935124201</v>
+        <v>1814.9734494551201</v>
       </c>
       <c r="J9">
-        <v>722.10464639548468</v>
+        <v>2229.940559316387</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -691,31 +691,31 @@
         <v>361</v>
       </c>
       <c r="B10">
-        <v>602.6088925492229</v>
+        <v>677.24996288538046</v>
       </c>
       <c r="C10">
-        <v>979.42518751425757</v>
+        <v>1073.615363608063</v>
       </c>
       <c r="D10">
-        <v>1050.4888463081811</v>
+        <v>1148.12319249951</v>
       </c>
       <c r="E10">
-        <v>1109.8373967989819</v>
+        <v>1208.876923549409</v>
       </c>
       <c r="F10">
-        <v>1749.418870492598</v>
+        <v>1925.4304259318801</v>
       </c>
       <c r="G10">
-        <v>2051.7617665800399</v>
+        <v>2249.9635291301852</v>
       </c>
       <c r="H10">
-        <v>1171.1521182970409</v>
+        <v>1274.95249913579</v>
       </c>
       <c r="I10">
-        <v>1643.9902035304481</v>
+        <v>1808.659060006366</v>
       </c>
       <c r="J10">
-        <v>1943.3928478378621</v>
+        <v>2133.1290432534129</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -723,31 +723,31 @@
         <v>673</v>
       </c>
       <c r="B11">
-        <v>-187.39472882111431</v>
+        <v>656.53208474701546</v>
       </c>
       <c r="C11">
-        <v>74.601115608650815</v>
+        <v>1073.6663841865479</v>
       </c>
       <c r="D11">
-        <v>96.186722946840874</v>
+        <v>1103.097963493389</v>
       </c>
       <c r="E11">
-        <v>172.9938743947734</v>
+        <v>1223.185717665184</v>
       </c>
       <c r="F11">
-        <v>525.40207765148318</v>
+        <v>1850.5253056769041</v>
       </c>
       <c r="G11">
-        <v>689.69152080514505</v>
+        <v>2177.717852055478</v>
       </c>
       <c r="H11">
-        <v>327.3768070001575</v>
+        <v>1486.7071715127111</v>
       </c>
       <c r="I11">
-        <v>432.98700977686428</v>
+        <v>1661.4301083025291</v>
       </c>
       <c r="J11">
-        <v>738.02048103807135</v>
+        <v>2267.137412360245</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -755,31 +755,31 @@
         <v>52</v>
       </c>
       <c r="B12">
-        <v>-1.357690488779622</v>
+        <v>623.23235766320261</v>
       </c>
       <c r="C12">
-        <v>320.94813782664602</v>
+        <v>1089.335959545627</v>
       </c>
       <c r="D12">
-        <v>308.9561699064277</v>
+        <v>1072.5487508748511</v>
       </c>
       <c r="E12">
-        <v>388.01956997923151</v>
+        <v>1179.8946197743489</v>
       </c>
       <c r="F12">
-        <v>830.91275063091177</v>
+        <v>1984.1792064284789</v>
       </c>
       <c r="G12">
-        <v>995.8265583221239</v>
+        <v>2230.261098301356</v>
       </c>
       <c r="H12">
-        <v>485.11482746120453</v>
+        <v>1329.1107287983259</v>
       </c>
       <c r="I12">
-        <v>749.52581490240686</v>
+        <v>1830.8926531946649</v>
       </c>
       <c r="J12">
-        <v>946.3846381169418</v>
+        <v>2160.5446254191479</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -787,31 +787,31 @@
         <v>399</v>
       </c>
       <c r="B13">
-        <v>-610.13966773848836</v>
+        <v>710.50941408659924</v>
       </c>
       <c r="C13">
-        <v>-382.40320029094158</v>
+        <v>1130.8138862960111</v>
       </c>
       <c r="D13">
-        <v>-364.96903552601731</v>
+        <v>1157.1753741022039</v>
       </c>
       <c r="E13">
-        <v>-302.82830076623219</v>
+        <v>1267.3885163615821</v>
       </c>
       <c r="F13">
-        <v>-19.958523836651018</v>
+        <v>1816.9812966137599</v>
       </c>
       <c r="G13">
-        <v>143.07983272514591</v>
+        <v>2164.4446231051852</v>
       </c>
       <c r="H13">
-        <v>-187.2143556710212</v>
+        <v>1479.243022230997</v>
       </c>
       <c r="I13">
-        <v>-46.927569963779092</v>
+        <v>1754.763828701912</v>
       </c>
       <c r="J13">
-        <v>68.209075039789226</v>
+        <v>2018.6800385017491</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -819,31 +819,31 @@
         <v>417</v>
       </c>
       <c r="B14">
-        <v>742.14794221945033</v>
+        <v>750.59388757511044</v>
       </c>
       <c r="C14">
-        <v>1042.276633271018</v>
+        <v>1052.34602030004</v>
       </c>
       <c r="D14">
-        <v>1131.9501125035761</v>
+        <v>1141.980959801165</v>
       </c>
       <c r="E14">
-        <v>1268.2121980138299</v>
+        <v>1279.795085213028</v>
       </c>
       <c r="F14">
-        <v>1917.2182021751021</v>
+        <v>1935.0715058665</v>
       </c>
       <c r="G14">
-        <v>1910.089840680221</v>
+        <v>1928.6901410407711</v>
       </c>
       <c r="H14">
-        <v>1319.677768260126</v>
+        <v>1330.7605375934861</v>
       </c>
       <c r="I14">
-        <v>1873.2954838488929</v>
+        <v>1891.564393251309</v>
       </c>
       <c r="J14">
-        <v>2170.2128720233072</v>
+        <v>2189.197469358593</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -851,31 +851,31 @@
         <v>631</v>
       </c>
       <c r="B15">
-        <v>189.7382148124002</v>
+        <v>663.33156278467118</v>
       </c>
       <c r="C15">
-        <v>519.75823441095804</v>
+        <v>1101.5620984499581</v>
       </c>
       <c r="D15">
-        <v>495.3713946642485</v>
+        <v>1070.4486365951</v>
       </c>
       <c r="E15">
-        <v>606.47211276172573</v>
+        <v>1214.866474015377</v>
       </c>
       <c r="F15">
-        <v>1035.052220011268</v>
+        <v>1894.5253612454919</v>
       </c>
       <c r="G15">
-        <v>1242.3533247087789</v>
+        <v>2185.7017569280301</v>
       </c>
       <c r="H15">
-        <v>715.75034841499348</v>
+        <v>1372.563137633412</v>
       </c>
       <c r="I15">
-        <v>1009.687821008122</v>
+        <v>1848.5943162800379</v>
       </c>
       <c r="J15">
-        <v>1215.3377661391</v>
+        <v>2148.4066560679221</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -883,31 +883,31 @@
         <v>648</v>
       </c>
       <c r="B16">
-        <v>619.92737833884269</v>
+        <v>774.77303284293282</v>
       </c>
       <c r="C16">
-        <v>951.15072322918445</v>
+        <v>1138.015288731599</v>
       </c>
       <c r="D16">
-        <v>999.10886111084642</v>
+        <v>1190.0269728146759</v>
       </c>
       <c r="E16">
-        <v>1058.447492074512</v>
+        <v>1253.249574847054</v>
       </c>
       <c r="F16">
-        <v>1529.270514750739</v>
+        <v>1796.6433583687619</v>
       </c>
       <c r="G16">
-        <v>1807.4421714976961</v>
+        <v>2118.0880539433688</v>
       </c>
       <c r="H16">
-        <v>1197.723944753192</v>
+        <v>1409.3370328324279</v>
       </c>
       <c r="I16">
-        <v>1439.342785840003</v>
+        <v>1685.9534084490119</v>
       </c>
       <c r="J16">
-        <v>1821.1646543480349</v>
+        <v>2133.9132771701652</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -915,31 +915,31 @@
         <v>714</v>
       </c>
       <c r="B17">
-        <v>-1924.0511783058</v>
+        <v>658.30702335488922</v>
       </c>
       <c r="C17">
-        <v>-1750.371377433426</v>
+        <v>1072.6957607641509</v>
       </c>
       <c r="D17">
-        <v>-1749.4994570916811</v>
+        <v>1065.4112575730151</v>
       </c>
       <c r="E17">
-        <v>-1696.035838195593</v>
+        <v>1203.354027115176</v>
       </c>
       <c r="F17">
-        <v>-1503.273474118384</v>
+        <v>1868.679835622115</v>
       </c>
       <c r="G17">
-        <v>-1366.3237011580529</v>
+        <v>2313.7695299779498</v>
       </c>
       <c r="H17">
-        <v>-1660.6920199835711</v>
+        <v>1299.106505169548</v>
       </c>
       <c r="I17">
-        <v>-1502.4990797740149</v>
+        <v>1853.405265591698</v>
       </c>
       <c r="J17">
-        <v>-1434.324382795035</v>
+        <v>2165.2707948314628</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -947,31 +947,31 @@
         <v>390</v>
       </c>
       <c r="B18">
-        <v>527.85912281565163</v>
+        <v>670.22674507199849</v>
       </c>
       <c r="C18">
-        <v>917.72267033570586</v>
+        <v>1101.4787700943491</v>
       </c>
       <c r="D18">
-        <v>922.41386387185503</v>
+        <v>1107.089528091059</v>
       </c>
       <c r="E18">
-        <v>1023.288878132718</v>
+        <v>1216.4394442282471</v>
       </c>
       <c r="F18">
-        <v>1514.423629554057</v>
+        <v>1797.653089019421</v>
       </c>
       <c r="G18">
-        <v>1828.803994701494</v>
+        <v>2160.9224195109118</v>
       </c>
       <c r="H18">
-        <v>1182.151240240996</v>
+        <v>1397.688495702145</v>
       </c>
       <c r="I18">
-        <v>1519.864314568305</v>
+        <v>1798.500232199759</v>
       </c>
       <c r="J18">
-        <v>1908.032021951678</v>
+        <v>2250.0012760821128</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -979,31 +979,31 @@
         <v>615</v>
       </c>
       <c r="B19">
-        <v>-1945.4504673638801</v>
+        <v>643.42888709642523</v>
       </c>
       <c r="C19">
-        <v>-1787.479977387391</v>
+        <v>1037.2441754397901</v>
       </c>
       <c r="D19">
-        <v>-1777.042035764458</v>
+        <v>1051.312313285661</v>
       </c>
       <c r="E19">
-        <v>-1717.078374444277</v>
+        <v>1202.0123154035241</v>
       </c>
       <c r="F19">
-        <v>-1524.8649853354129</v>
+        <v>1849.4693961724711</v>
       </c>
       <c r="G19">
-        <v>-1408.777770250666</v>
+        <v>2252.1416083950512</v>
       </c>
       <c r="H19">
-        <v>-1659.0822785559039</v>
+        <v>1359.383887142192</v>
       </c>
       <c r="I19">
-        <v>-1523.033250080327</v>
+        <v>1843.313953265857</v>
       </c>
       <c r="J19">
-        <v>-1428.3990672057409</v>
+        <v>2261.6934637990321</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1011,31 +1011,31 @@
         <v>566</v>
       </c>
       <c r="B20">
-        <v>554.09372815798747</v>
+        <v>698.06831786022099</v>
       </c>
       <c r="C20">
-        <v>973.85084250506657</v>
+        <v>1170.009129992108</v>
       </c>
       <c r="D20">
-        <v>961.81756195194646</v>
+        <v>1158.410460955771</v>
       </c>
       <c r="E20">
-        <v>1049.7465372262091</v>
+        <v>1252.21678861685</v>
       </c>
       <c r="F20">
-        <v>1499.8104689597501</v>
+        <v>1763.969315675309</v>
       </c>
       <c r="G20">
-        <v>1730.8045528655241</v>
+        <v>2026.217952982488</v>
       </c>
       <c r="H20">
-        <v>1294.3749860568039</v>
+        <v>1529.8562831407321</v>
       </c>
       <c r="I20">
-        <v>1483.2206866001079</v>
+        <v>1739.55415195864</v>
       </c>
       <c r="J20">
-        <v>1851.3379058063181</v>
+        <v>2161.6975988178729</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1043,31 +1043,31 @@
         <v>401</v>
       </c>
       <c r="B21">
-        <v>597.67396671076949</v>
+        <v>630.12368157610604</v>
       </c>
       <c r="C21">
-        <v>1066.042799026407</v>
+        <v>1111.3413485417759</v>
       </c>
       <c r="D21">
-        <v>1031.770709956214</v>
+        <v>1075.6853068277101</v>
       </c>
       <c r="E21">
-        <v>1148.850821800768</v>
+        <v>1196.6020814067799</v>
       </c>
       <c r="F21">
-        <v>1728.3896739956849</v>
+        <v>1800.369195992675</v>
       </c>
       <c r="G21">
-        <v>2086.786024624224</v>
+        <v>2169.65837565934</v>
       </c>
       <c r="H21">
-        <v>1353.9814198534109</v>
+        <v>1406.0894801056311</v>
       </c>
       <c r="I21">
-        <v>1823.277083602356</v>
+        <v>1900.460340285136</v>
       </c>
       <c r="J21">
-        <v>2126.3511942379691</v>
+        <v>2209.670189604848</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1075,31 +1075,31 @@
         <v>731</v>
       </c>
       <c r="B22">
-        <v>-962.26747051724465</v>
+        <v>598.08730931385651</v>
       </c>
       <c r="C22">
-        <v>-723.17534816828652</v>
+        <v>1104.745966272583</v>
       </c>
       <c r="D22">
-        <v>-735.26101423095668</v>
+        <v>1069.954334642026</v>
       </c>
       <c r="E22">
-        <v>-657.72102917712482</v>
+        <v>1222.123447742654</v>
       </c>
       <c r="F22">
-        <v>-403.49569098210441</v>
+        <v>1874.214449152636</v>
       </c>
       <c r="G22">
-        <v>-267.21444614706547</v>
+        <v>2183.2065963002292</v>
       </c>
       <c r="H22">
-        <v>-595.35989627793663</v>
+        <v>1347.297322727866</v>
       </c>
       <c r="I22">
-        <v>-396.89257071705617</v>
+        <v>1878.7780258922039</v>
       </c>
       <c r="J22">
-        <v>-268.89499164662033</v>
+        <v>2221.5925479559451</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1107,31 +1107,31 @@
         <v>596</v>
       </c>
       <c r="B23">
-        <v>576.54100524211549</v>
+        <v>651.51593229994148</v>
       </c>
       <c r="C23">
-        <v>996.92074714934938</v>
+        <v>1095.499518194935</v>
       </c>
       <c r="D23">
-        <v>978.97784083531531</v>
+        <v>1077.511523049915</v>
       </c>
       <c r="E23">
-        <v>1111.942523569498</v>
+        <v>1215.7951916016079</v>
       </c>
       <c r="F23">
-        <v>1674.617674620552</v>
+        <v>1844.0097139061129</v>
       </c>
       <c r="G23">
-        <v>1992.970317966123</v>
+        <v>2186.4565324849968</v>
       </c>
       <c r="H23">
-        <v>1236.238014828142</v>
+        <v>1350.1415088676131</v>
       </c>
       <c r="I23">
-        <v>1684.5304011458679</v>
+        <v>1851.4255822754201</v>
       </c>
       <c r="J23">
-        <v>2032.411339819464</v>
+        <v>2227.6444973194548</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1139,31 +1139,31 @@
         <v>162</v>
       </c>
       <c r="B24">
-        <v>-1577.3909098308659</v>
+        <v>649.2005410789892</v>
       </c>
       <c r="C24">
-        <v>-1401.2648754879619</v>
+        <v>1069.563275184272</v>
       </c>
       <c r="D24">
-        <v>-1385.8208070370331</v>
+        <v>1094.0933425427229</v>
       </c>
       <c r="E24">
-        <v>-1339.138473543052</v>
+        <v>1200.338950013404</v>
       </c>
       <c r="F24">
-        <v>-1140.1473555162361</v>
+        <v>1744.8501145993889</v>
       </c>
       <c r="G24">
-        <v>-963.20490343271922</v>
+        <v>2316.3185610999658</v>
       </c>
       <c r="H24">
-        <v>-1207.228987672949</v>
+        <v>1537.145664941185</v>
       </c>
       <c r="I24">
-        <v>-1142.466720457031</v>
+        <v>1714.3561057892989</v>
       </c>
       <c r="J24">
-        <v>-1023.18362544424</v>
+        <v>2174.1334447507729</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1171,31 +1171,31 @@
         <v>745</v>
       </c>
       <c r="B25">
-        <v>598.86081595312771</v>
+        <v>673.56418095585911</v>
       </c>
       <c r="C25">
-        <v>1021.628103992789</v>
+        <v>1120.3159804523859</v>
       </c>
       <c r="D25">
-        <v>1029.9736324745661</v>
+        <v>1129.3862845724909</v>
       </c>
       <c r="E25">
-        <v>1142.0614088480579</v>
+        <v>1245.721618000571</v>
       </c>
       <c r="F25">
-        <v>1746.8727284028851</v>
+        <v>1920.4545147691631</v>
       </c>
       <c r="G25">
-        <v>1963.6348738845591</v>
+        <v>2147.6862304230258</v>
       </c>
       <c r="H25">
-        <v>1205.9592981161179</v>
+        <v>1314.6214304533401</v>
       </c>
       <c r="I25">
-        <v>1650.3143768686191</v>
+        <v>1812.53506822335</v>
       </c>
       <c r="J25">
-        <v>1950.902412420721</v>
+        <v>2135.714692149807</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1203,31 +1203,31 @@
         <v>827</v>
       </c>
       <c r="B26">
-        <v>-155.512385470754</v>
+        <v>677.01107522471284</v>
       </c>
       <c r="C26">
-        <v>131.1650351740436</v>
+        <v>1119.8672119064649</v>
       </c>
       <c r="D26">
-        <v>124.97900030483071</v>
+        <v>1108.6661988076401</v>
       </c>
       <c r="E26">
-        <v>200.43372924435329</v>
+        <v>1219.6194975394219</v>
       </c>
       <c r="F26">
-        <v>528.54614062593384</v>
+        <v>1845.553823211108</v>
       </c>
       <c r="G26">
-        <v>736.02087242034099</v>
+        <v>2191.3456224945548</v>
       </c>
       <c r="H26">
-        <v>284.80137362629989</v>
+        <v>1351.251841176505</v>
       </c>
       <c r="I26">
-        <v>594.08090341458387</v>
+        <v>1954.6880627871781</v>
       </c>
       <c r="J26">
-        <v>637.61723771827451</v>
+        <v>2031.996666852415</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1235,31 +1235,31 @@
         <v>708</v>
       </c>
       <c r="B27">
-        <v>580.87657261817901</v>
+        <v>588.38389980160127</v>
       </c>
       <c r="C27">
-        <v>1004.785269475518</v>
+        <v>1015.500677874844</v>
       </c>
       <c r="D27">
-        <v>1105.504270327627</v>
+        <v>1116.181792250396</v>
       </c>
       <c r="E27">
-        <v>1210.8019494873231</v>
+        <v>1223.2081427140381</v>
       </c>
       <c r="F27">
-        <v>1869.090975751282</v>
+        <v>1887.3905538000381</v>
       </c>
       <c r="G27">
-        <v>2113.325997513341</v>
+        <v>2133.3455536009678</v>
       </c>
       <c r="H27">
-        <v>1444.6638865523439</v>
+        <v>1457.9347570002799</v>
       </c>
       <c r="I27">
-        <v>1847.5908927998539</v>
+        <v>1866.562844924709</v>
       </c>
       <c r="J27">
-        <v>2191.6913116917308</v>
+        <v>2211.4917780331261</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1267,31 +1267,31 @@
         <v>514</v>
       </c>
       <c r="B28">
-        <v>452.22849652777279</v>
+        <v>677.72137047563535</v>
       </c>
       <c r="C28">
-        <v>847.99200496217804</v>
+        <v>1145.4289698685191</v>
       </c>
       <c r="D28">
-        <v>842.5250745137273</v>
+        <v>1139.0851613753439</v>
       </c>
       <c r="E28">
-        <v>925.1485667052491</v>
+        <v>1232.3571566680221</v>
       </c>
       <c r="F28">
-        <v>1446.2297443862931</v>
+        <v>1893.5574431853661</v>
       </c>
       <c r="G28">
-        <v>1651.3075244213951</v>
+        <v>2128.9957567032102</v>
       </c>
       <c r="H28">
-        <v>1061.0852619582199</v>
+        <v>1394.741447500802</v>
       </c>
       <c r="I28">
-        <v>1355.1429995381311</v>
+        <v>1774.8616966168211</v>
       </c>
       <c r="J28">
-        <v>1634.411650013061</v>
+        <v>2113.2509976062779</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1299,31 +1299,31 @@
         <v>113</v>
       </c>
       <c r="B29">
-        <v>28.688394824696481</v>
+        <v>680.31590891643827</v>
       </c>
       <c r="C29">
-        <v>310.39097973959269</v>
+        <v>1080.8950988997599</v>
       </c>
       <c r="D29">
-        <v>338.22602495357108</v>
+        <v>1119.070470720304</v>
       </c>
       <c r="E29">
-        <v>384.64015899368678</v>
+        <v>1182.727746313223</v>
       </c>
       <c r="F29">
-        <v>732.69413276235468</v>
+        <v>1776.81270743659</v>
       </c>
       <c r="G29">
-        <v>966.0075133950844</v>
+        <v>2158.3853922260519</v>
       </c>
       <c r="H29">
-        <v>525.14346969365886</v>
+        <v>1395.8896218351849</v>
       </c>
       <c r="I29">
-        <v>796.97991366070744</v>
+        <v>1870.9799046166311</v>
       </c>
       <c r="J29">
-        <v>1014.511337638716</v>
+        <v>2234.9231490358202</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1331,31 +1331,31 @@
         <v>541</v>
       </c>
       <c r="B30">
-        <v>-391.7227421546898</v>
+        <v>666.31092173585216</v>
       </c>
       <c r="C30">
-        <v>-163.1041221981005</v>
+        <v>1037.3716449646799</v>
       </c>
       <c r="D30">
-        <v>-125.7219244962089</v>
+        <v>1094.806651026943</v>
       </c>
       <c r="E30">
-        <v>-79.942212992922833</v>
+        <v>1165.371083647608</v>
       </c>
       <c r="F30">
-        <v>295.84307032307441</v>
+        <v>2008.697468951206</v>
       </c>
       <c r="G30">
-        <v>412.21810098492278</v>
+        <v>2224.0986716706461</v>
       </c>
       <c r="H30">
-        <v>1.2874313748918249</v>
+        <v>1307.9807432235541</v>
       </c>
       <c r="I30">
-        <v>205.0797495731683</v>
+        <v>1784.1311662062001</v>
       </c>
       <c r="J30">
-        <v>397.25344482375311</v>
+        <v>2211.2316485733049</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1363,31 +1363,31 @@
         <v>675</v>
       </c>
       <c r="B31">
-        <v>29.4735079556343</v>
+        <v>668.44336498536882</v>
       </c>
       <c r="C31">
-        <v>351.40834253432871</v>
+        <v>1134.979621685402</v>
       </c>
       <c r="D31">
-        <v>350.08038466155813</v>
+        <v>1131.84956907588</v>
       </c>
       <c r="E31">
-        <v>415.20479481203978</v>
+        <v>1223.8217267048331</v>
       </c>
       <c r="F31">
-        <v>824.56561378208028</v>
+        <v>1915.014544176458</v>
       </c>
       <c r="G31">
-        <v>968.72324834678761</v>
+        <v>2114.7835380627062</v>
       </c>
       <c r="H31">
-        <v>518.05849240399289</v>
+        <v>1372.447374751338</v>
       </c>
       <c r="I31">
-        <v>760.4600557233706</v>
+        <v>1797.5427246524871</v>
       </c>
       <c r="J31">
-        <v>979.52464879730564</v>
+        <v>2141.1175359055219</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1395,31 +1395,31 @@
         <v>348</v>
       </c>
       <c r="B32">
-        <v>3158.109197249124</v>
+        <v>813.75134939182988</v>
       </c>
       <c r="C32">
-        <v>11785.76887403625</v>
+        <v>1060.9797561291689</v>
       </c>
       <c r="D32">
-        <v>11028.43440588577</v>
+        <v>1218.447067255308</v>
       </c>
       <c r="E32">
-        <v>20339.55200640556</v>
+        <v>1317.8219621395581</v>
       </c>
       <c r="F32">
-        <v>43167.030782523339</v>
+        <v>1919.082945272695</v>
       </c>
       <c r="G32">
-        <v>42194.689828519789</v>
+        <v>1864.2435376814819</v>
       </c>
       <c r="H32">
-        <v>18575.9011779879</v>
+        <v>1279.1499047860329</v>
       </c>
       <c r="I32">
-        <v>-172298339.07297891</v>
+        <v>2075.9854301647488</v>
       </c>
       <c r="J32">
-        <v>34556.783107666139</v>
+        <v>1950.5380471791771</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1427,31 +1427,31 @@
         <v>686</v>
       </c>
       <c r="B33">
-        <v>-3692.2948226681829</v>
+        <v>616.43822782583163</v>
       </c>
       <c r="C33">
-        <v>-3586.0451718041609</v>
+        <v>994.0653427686226</v>
       </c>
       <c r="D33">
-        <v>-3561.4293156216831</v>
+        <v>1064.9797878747161</v>
       </c>
       <c r="E33">
-        <v>-3526.5161297458749</v>
+        <v>1186.7765303429401</v>
       </c>
       <c r="F33">
-        <v>-3379.9485577482692</v>
+        <v>1962.1925258194581</v>
       </c>
       <c r="G33">
-        <v>-3299.6800789228009</v>
+        <v>2322.5279945819188</v>
       </c>
       <c r="H33">
-        <v>-3483.6237625397812</v>
+        <v>1377.682929279948</v>
       </c>
       <c r="I33">
-        <v>-3382.7555966490208</v>
+        <v>1952.354140433438</v>
       </c>
       <c r="J33">
-        <v>-3381.1271960186741</v>
+        <v>2022.9825210731281</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1459,31 +1459,31 @@
         <v>172</v>
       </c>
       <c r="B34">
-        <v>10.783156429823739</v>
+        <v>648.05686915530646</v>
       </c>
       <c r="C34">
-        <v>319.14146453313089</v>
+        <v>1108.731843386179</v>
       </c>
       <c r="D34">
-        <v>339.62633923058848</v>
+        <v>1136.0327616740001</v>
       </c>
       <c r="E34">
-        <v>404.27889939397971</v>
+        <v>1226.5131991613471</v>
       </c>
       <c r="F34">
-        <v>742.75229026640022</v>
+        <v>1783.6758490214349</v>
       </c>
       <c r="G34">
-        <v>939.92187550864514</v>
+        <v>2097.6734426190992</v>
       </c>
       <c r="H34">
-        <v>526.28999620407672</v>
+        <v>1410.6580801297471</v>
       </c>
       <c r="I34">
-        <v>778.09172496746567</v>
+        <v>1830.049752444693</v>
       </c>
       <c r="J34">
-        <v>1033.023604109417</v>
+        <v>2258.6082024081938</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1491,31 +1491,31 @@
         <v>259</v>
       </c>
       <c r="B35">
-        <v>627.19229777129146</v>
+        <v>659.9887768923976</v>
       </c>
       <c r="C35">
-        <v>1044.4301937725579</v>
+        <v>1087.8181552053691</v>
       </c>
       <c r="D35">
-        <v>1076.1035246833819</v>
+        <v>1120.584743008284</v>
       </c>
       <c r="E35">
-        <v>1174.553066840391</v>
+        <v>1220.1201945613529</v>
       </c>
       <c r="F35">
-        <v>1742.912367484859</v>
+        <v>1817.9456939960619</v>
       </c>
       <c r="G35">
-        <v>2110.53363782929</v>
+        <v>2197.770278831877</v>
       </c>
       <c r="H35">
-        <v>1308.3171171920351</v>
+        <v>1358.906727164534</v>
       </c>
       <c r="I35">
-        <v>1764.2446284926871</v>
+        <v>1837.786898538571</v>
       </c>
       <c r="J35">
-        <v>2111.703633851313</v>
+        <v>2199.0785318015528</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1523,31 +1523,31 @@
         <v>216</v>
       </c>
       <c r="B36">
-        <v>374.88701328391699</v>
+        <v>729.74007788798667</v>
       </c>
       <c r="C36">
-        <v>656.71511850496381</v>
+        <v>1085.450598886116</v>
       </c>
       <c r="D36">
-        <v>770.16826873027708</v>
+        <v>1218.1966491040071</v>
       </c>
       <c r="E36">
-        <v>841.18032720391489</v>
+        <v>1310.93659389563</v>
       </c>
       <c r="F36">
-        <v>1365.684350582404</v>
+        <v>1988.8841615309029</v>
       </c>
       <c r="G36">
-        <v>1406.8127422234379</v>
+        <v>2040.821682666661</v>
       </c>
       <c r="H36">
-        <v>982.39669680546069</v>
+        <v>1475.5387176360989</v>
       </c>
       <c r="I36">
-        <v>1083.664968589449</v>
+        <v>1618.642130428274</v>
       </c>
       <c r="J36">
-        <v>1409.5132006597339</v>
+        <v>2031.7893879643241</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1555,31 +1555,31 @@
         <v>907</v>
       </c>
       <c r="B37">
-        <v>-391.9225532743182</v>
+        <v>665.79384369158026</v>
       </c>
       <c r="C37">
-        <v>-163.2572820611571</v>
+        <v>1036.85242828022</v>
       </c>
       <c r="D37">
-        <v>-125.9494413449483</v>
+        <v>1094.2851999496761</v>
       </c>
       <c r="E37">
-        <v>-80.133341258110931</v>
+        <v>1164.866759757766</v>
       </c>
       <c r="F37">
-        <v>295.35237279415742</v>
+        <v>2011.406138680831</v>
       </c>
       <c r="G37">
-        <v>414.51100102487283</v>
+        <v>2225.5962618121771</v>
       </c>
       <c r="H37">
-        <v>1.115273237517731</v>
+        <v>1307.4942272699579</v>
       </c>
       <c r="I37">
-        <v>202.99363437473329</v>
+        <v>1780.958783699328</v>
       </c>
       <c r="J37">
-        <v>397.37649959266378</v>
+        <v>2212.7463568584621</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1587,31 +1587,31 @@
         <v>804</v>
       </c>
       <c r="B38">
-        <v>553.65370448305839</v>
+        <v>628.76769881951566</v>
       </c>
       <c r="C38">
-        <v>949.32093985138761</v>
+        <v>1048.050338185458</v>
       </c>
       <c r="D38">
-        <v>970.77628991310337</v>
+        <v>1071.310798509508</v>
       </c>
       <c r="E38">
-        <v>1108.234678312597</v>
+        <v>1214.0472388437031</v>
       </c>
       <c r="F38">
-        <v>1560.333399219373</v>
+        <v>1713.9081151844509</v>
       </c>
       <c r="G38">
-        <v>2133.8503614342349</v>
+        <v>2351.3857375908678</v>
       </c>
       <c r="H38">
-        <v>1266.3574067799391</v>
+        <v>1386.2400886713369</v>
       </c>
       <c r="I38">
-        <v>1671.587118514821</v>
+        <v>1832.4421268291931</v>
       </c>
       <c r="J38">
-        <v>2046.491836320788</v>
+        <v>2253.8478573659622</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1619,31 +1619,31 @@
         <v>826</v>
       </c>
       <c r="B39">
-        <v>-5266.7416330050573</v>
+        <v>697.43558570193113</v>
       </c>
       <c r="C39">
-        <v>-5194.2895436485396</v>
+        <v>1025.523401984731</v>
       </c>
       <c r="D39">
-        <v>-5155.4046236554104</v>
+        <v>1163.749190654323</v>
       </c>
       <c r="E39">
-        <v>-5130.3445933832654</v>
+        <v>1264.5043990936861</v>
       </c>
       <c r="F39">
-        <v>-5039.6827370399351</v>
+        <v>1835.415858379567</v>
       </c>
       <c r="G39">
-        <v>-4978.3089550255136</v>
+        <v>2175.2529017577208</v>
       </c>
       <c r="H39">
-        <v>-5088.4599381367134</v>
+        <v>1481.215829589848</v>
       </c>
       <c r="I39">
-        <v>-5046.274064696865</v>
+        <v>1778.687839576555</v>
       </c>
       <c r="J39">
-        <v>-5029.0339175434947</v>
+        <v>2078.2149932616348</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1651,31 +1651,31 @@
         <v>246</v>
       </c>
       <c r="B40">
-        <v>539.34567680244913</v>
+        <v>679.48491795281325</v>
       </c>
       <c r="C40">
-        <v>943.85838685058093</v>
+        <v>1137.784786506757</v>
       </c>
       <c r="D40">
-        <v>991.99793800695193</v>
+        <v>1191.7758175990689</v>
       </c>
       <c r="E40">
-        <v>1098.647993697949</v>
+        <v>1304.636461079981</v>
       </c>
       <c r="F40">
-        <v>1603.6253620078689</v>
+        <v>1882.278433007262</v>
       </c>
       <c r="G40">
-        <v>1771.0183078534569</v>
+        <v>2072.121070940052</v>
       </c>
       <c r="H40">
-        <v>1306.7777064125471</v>
+        <v>1538.988425443561</v>
       </c>
       <c r="I40">
-        <v>1338.431027548301</v>
+        <v>1570.0266526009129</v>
       </c>
       <c r="J40">
-        <v>1816.599875717588</v>
+        <v>2122.9034348695882</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1683,31 +1683,31 @@
         <v>261</v>
       </c>
       <c r="B41">
-        <v>584.67708207917281</v>
+        <v>659.92672682383204</v>
       </c>
       <c r="C41">
-        <v>1012.857469266552</v>
+        <v>1112.512318360149</v>
       </c>
       <c r="D41">
-        <v>988.45787288367774</v>
+        <v>1087.842718631131</v>
       </c>
       <c r="E41">
-        <v>1121.040745472153</v>
+        <v>1225.8454883146951</v>
       </c>
       <c r="F41">
-        <v>1664.22862104816</v>
+        <v>1831.6771138532649</v>
       </c>
       <c r="G41">
-        <v>1967.691763911278</v>
+        <v>2156.5159073384989</v>
       </c>
       <c r="H41">
-        <v>1244.2815253105721</v>
+        <v>1359.136644370177</v>
       </c>
       <c r="I41">
-        <v>1699.7221103101631</v>
+        <v>1867.079484590902</v>
       </c>
       <c r="J41">
-        <v>2008.466364571965</v>
+        <v>2199.463597717348</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1715,31 +1715,31 @@
         <v>264</v>
       </c>
       <c r="B42">
-        <v>650.80698586027484</v>
+        <v>683.29536959576819</v>
       </c>
       <c r="C42">
-        <v>1070.124300573209</v>
+        <v>1112.400774617068</v>
       </c>
       <c r="D42">
-        <v>1070.243830433363</v>
+        <v>1113.0817724209439</v>
       </c>
       <c r="E42">
-        <v>1159.7212484960039</v>
+        <v>1203.4443814986009</v>
       </c>
       <c r="F42">
-        <v>1824.035887143802</v>
+        <v>1901.065389274949</v>
       </c>
       <c r="G42">
-        <v>2077.026397054336</v>
+        <v>2160.4374060565701</v>
       </c>
       <c r="H42">
-        <v>1325.6639032791829</v>
+        <v>1375.571929150969</v>
       </c>
       <c r="I42">
-        <v>1847.708303082336</v>
+        <v>1923.8805018688449</v>
       </c>
       <c r="J42">
-        <v>1946.631290925056</v>
+        <v>2026.8224755162839</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1747,31 +1747,31 @@
         <v>886</v>
       </c>
       <c r="B43">
-        <v>657.63793659192356</v>
+        <v>692.42719267798611</v>
       </c>
       <c r="C43">
-        <v>1082.424768569633</v>
+        <v>1128.8855756634489</v>
       </c>
       <c r="D43">
-        <v>1063.828752584004</v>
+        <v>1109.051329824943</v>
       </c>
       <c r="E43">
-        <v>1180.8508253459979</v>
+        <v>1229.782311102771</v>
       </c>
       <c r="F43">
-        <v>1713.4120882381869</v>
+        <v>1783.002451247989</v>
       </c>
       <c r="G43">
-        <v>2119.5640039761502</v>
+        <v>2200.0883131694022</v>
       </c>
       <c r="H43">
-        <v>1348.367472642537</v>
+        <v>1399.996149839897</v>
       </c>
       <c r="I43">
-        <v>1766.420524849877</v>
+        <v>1839.5242890267621</v>
       </c>
       <c r="J43">
-        <v>2038.9656330891639</v>
+        <v>2117.242387446795</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1779,31 +1779,31 @@
         <v>569</v>
       </c>
       <c r="B44">
-        <v>-5321.1911446194472</v>
+        <v>643.48521818385098</v>
       </c>
       <c r="C44">
-        <v>-5226.5762880098864</v>
+        <v>1042.901692275638</v>
       </c>
       <c r="D44">
-        <v>-5198.8950019041276</v>
+        <v>1189.465190351397</v>
       </c>
       <c r="E44">
-        <v>-5187.2590966076914</v>
+        <v>1276.142107049285</v>
       </c>
       <c r="F44">
-        <v>-5084.3231024848583</v>
+        <v>1870.1878052961119</v>
       </c>
       <c r="G44">
-        <v>-5072.916916882562</v>
+        <v>2199.089890706754</v>
       </c>
       <c r="H44">
-        <v>-5146.9599932088258</v>
+        <v>1365.937997554267</v>
       </c>
       <c r="I44">
-        <v>-5104.1208558983426</v>
+        <v>1636.615384857851</v>
       </c>
       <c r="J44">
-        <v>-5028.778617003064</v>
+        <v>2276.1747137248421</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1811,31 +1811,31 @@
         <v>897</v>
       </c>
       <c r="B45">
-        <v>-1886.506408220878</v>
+        <v>667.33510208099619</v>
       </c>
       <c r="C45">
-        <v>-1695.6477654194521</v>
+        <v>1145.838041349399</v>
       </c>
       <c r="D45">
-        <v>-1702.810442647547</v>
+        <v>1124.5751990501301</v>
       </c>
       <c r="E45">
-        <v>-1648.904362254028</v>
+        <v>1249.291201793546</v>
       </c>
       <c r="F45">
-        <v>-1425.912087239712</v>
+        <v>1927.8531574904559</v>
       </c>
       <c r="G45">
-        <v>-1346.1661358645119</v>
+        <v>2156.5664975506038</v>
       </c>
       <c r="H45">
-        <v>-1608.1822512955109</v>
+        <v>1350.5604322306731</v>
       </c>
       <c r="I45">
-        <v>-1445.2461102374109</v>
+        <v>1863.257885382071</v>
       </c>
       <c r="J45">
-        <v>-1414.7976963819549</v>
+        <v>2014.722483072127</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1843,31 +1843,31 @@
         <v>837</v>
       </c>
       <c r="B46">
-        <v>554.14130901269095</v>
+        <v>629.15460091677335</v>
       </c>
       <c r="C46">
-        <v>949.98681401628164</v>
+        <v>1048.648347710023</v>
       </c>
       <c r="D46">
-        <v>967.67555406313602</v>
+        <v>1068.0617333159021</v>
       </c>
       <c r="E46">
-        <v>1109.391396226295</v>
+        <v>1215.245122794021</v>
       </c>
       <c r="F46">
-        <v>1566.016300282919</v>
+        <v>1720.8358010349209</v>
       </c>
       <c r="G46">
-        <v>2122.9329612361462</v>
+        <v>2337.2336531699789</v>
       </c>
       <c r="H46">
-        <v>1266.2355786626961</v>
+        <v>1386.178396779555</v>
       </c>
       <c r="I46">
-        <v>1681.8683362781151</v>
+        <v>1844.874747498189</v>
       </c>
       <c r="J46">
-        <v>2044.027006051097</v>
+        <v>2249.7675967806358</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1875,31 +1875,31 @@
         <v>391</v>
       </c>
       <c r="B47">
-        <v>-935.98878302921526</v>
+        <v>650.29998514830606</v>
       </c>
       <c r="C47">
-        <v>-689.63806476580589</v>
+        <v>1119.356467031221</v>
       </c>
       <c r="D47">
-        <v>-713.72368424228694</v>
+        <v>1080.947450418133</v>
       </c>
       <c r="E47">
-        <v>-656.84625992069527</v>
+        <v>1195.902046926743</v>
       </c>
       <c r="F47">
-        <v>-382.27684920906893</v>
+        <v>1870.920602791484</v>
       </c>
       <c r="G47">
-        <v>-269.84463910357891</v>
+        <v>2184.4019654075701</v>
       </c>
       <c r="H47">
-        <v>-570.34407322408413</v>
+        <v>1341.276492532033</v>
       </c>
       <c r="I47">
-        <v>-405.08435144362659</v>
+        <v>1798.1384582718929</v>
       </c>
       <c r="J47">
-        <v>-211.57802395693719</v>
+        <v>2258.7565314726212</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1907,31 +1907,31 @@
         <v>872</v>
       </c>
       <c r="B48">
-        <v>350.84055951544241</v>
+        <v>696.11415847251169</v>
       </c>
       <c r="C48">
-        <v>684.96262369895237</v>
+        <v>1117.063445412186</v>
       </c>
       <c r="D48">
-        <v>706.7141637288147</v>
+        <v>1145.018147491551</v>
       </c>
       <c r="E48">
-        <v>794.74288250463815</v>
+        <v>1251.999210874242</v>
       </c>
       <c r="F48">
-        <v>1284.3710841715631</v>
+        <v>1897.462951031798</v>
       </c>
       <c r="G48">
-        <v>1474.285609218847</v>
+        <v>2135.0018819460988</v>
       </c>
       <c r="H48">
-        <v>1006.269614954649</v>
+        <v>1532.6386904315229</v>
       </c>
       <c r="I48">
-        <v>1177.2275471159419</v>
+        <v>1755.002201054356</v>
       </c>
       <c r="J48">
-        <v>1341.9337216436959</v>
+        <v>1969.699313285731</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1939,31 +1939,31 @@
         <v>156</v>
       </c>
       <c r="B49">
-        <v>535.04452362364555</v>
+        <v>607.52990492595825</v>
       </c>
       <c r="C49">
-        <v>1001.738022007523</v>
+        <v>1105.9512444958889</v>
       </c>
       <c r="D49">
-        <v>1009.296808339554</v>
+        <v>1112.487535623693</v>
       </c>
       <c r="E49">
-        <v>1094.8660028989559</v>
+        <v>1205.002809217322</v>
       </c>
       <c r="F49">
-        <v>1635.6783447574221</v>
+        <v>1794.234717973007</v>
       </c>
       <c r="G49">
-        <v>1978.8993642032581</v>
+        <v>2159.7579948506509</v>
       </c>
       <c r="H49">
-        <v>1327.945647765466</v>
+        <v>1451.011914017472</v>
       </c>
       <c r="I49">
-        <v>1718.9999818277711</v>
+        <v>1885.415741933891</v>
       </c>
       <c r="J49">
-        <v>1998.222987022863</v>
+        <v>2178.6081369621161</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1971,31 +1971,31 @@
         <v>379</v>
       </c>
       <c r="B50">
-        <v>284.88015274105902</v>
+        <v>612.59609760989986</v>
       </c>
       <c r="C50">
-        <v>603.53895871908162</v>
+        <v>1018.725666548168</v>
       </c>
       <c r="D50">
-        <v>658.74560560501254</v>
+        <v>1084.934790328359</v>
       </c>
       <c r="E50">
-        <v>783.07802080330441</v>
+        <v>1237.585865206991</v>
       </c>
       <c r="F50">
-        <v>1192.4113810782601</v>
+        <v>1839.098914831786</v>
       </c>
       <c r="G50">
-        <v>1457.7062037871499</v>
+        <v>2191.853163299947</v>
       </c>
       <c r="H50">
-        <v>874.57584338692629</v>
+        <v>1359.844798087868</v>
       </c>
       <c r="I50">
-        <v>1216.4803616931599</v>
+        <v>1864.350068428879</v>
       </c>
       <c r="J50">
-        <v>1533.9022001216249</v>
+        <v>2291.0106356581032</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2003,31 +2003,31 @@
         <v>252</v>
       </c>
       <c r="B51">
-        <v>347.69446089636591</v>
+        <v>683.59589454484501</v>
       </c>
       <c r="C51">
-        <v>692.00791190004793</v>
+        <v>1108.3272324861309</v>
       </c>
       <c r="D51">
-        <v>692.30793723140164</v>
+        <v>1110.648329540639</v>
       </c>
       <c r="E51">
-        <v>782.56337569328707</v>
+        <v>1217.362118838797</v>
       </c>
       <c r="F51">
-        <v>1275.6255964751599</v>
+        <v>1914.257447989097</v>
       </c>
       <c r="G51">
-        <v>1466.1516737376239</v>
+        <v>2149.402657813579</v>
       </c>
       <c r="H51">
-        <v>923.44267497894725</v>
+        <v>1402.1885294699759</v>
       </c>
       <c r="I51">
-        <v>1248.264057517453</v>
+        <v>1872.0424714943431</v>
       </c>
       <c r="J51">
-        <v>1380.263361037817</v>
+        <v>2042.175317822597</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2035,31 +2035,31 @@
         <v>749</v>
       </c>
       <c r="B52">
-        <v>667.5461260638134</v>
+        <v>675.32788661664881</v>
       </c>
       <c r="C52">
-        <v>1093.6412259844631</v>
+        <v>1103.589140281028</v>
       </c>
       <c r="D52">
-        <v>1110.660940587813</v>
+        <v>1121.015548850864</v>
       </c>
       <c r="E52">
-        <v>1191.172356659479</v>
+        <v>1201.425621626126</v>
       </c>
       <c r="F52">
-        <v>1883.481677689826</v>
+        <v>1904.0513277016671</v>
       </c>
       <c r="G52">
-        <v>2186.8158211940099</v>
+        <v>2209.823167278174</v>
       </c>
       <c r="H52">
-        <v>1251.3066777808219</v>
+        <v>1262.445626809425</v>
       </c>
       <c r="I52">
-        <v>1797.8686791110929</v>
+        <v>1816.582561367245</v>
       </c>
       <c r="J52">
-        <v>2182.6500309545759</v>
+        <v>2205.7391194688262</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2099,31 +2099,31 @@
         <v>257</v>
       </c>
       <c r="B54">
-        <v>-1145.798670844239</v>
+        <v>779.1499103475943</v>
       </c>
       <c r="C54">
-        <v>-1032.274458949116</v>
+        <v>998.01174173630875</v>
       </c>
       <c r="D54">
-        <v>-928.69875837204177</v>
+        <v>1194.835117945624</v>
       </c>
       <c r="E54">
-        <v>-895.48102050665489</v>
+        <v>1260.8173833118269</v>
       </c>
       <c r="F54">
-        <v>-626.49165640073227</v>
+        <v>1978.9718609674801</v>
       </c>
       <c r="G54">
-        <v>-512.6872101391582</v>
+        <v>2299.2660490636572</v>
       </c>
       <c r="H54">
-        <v>-865.0838663858076</v>
+        <v>1331.140052253754</v>
       </c>
       <c r="I54">
-        <v>-696.09794768354777</v>
+        <v>1783.1529620582271</v>
       </c>
       <c r="J54">
-        <v>-670.31429151202542</v>
+        <v>1874.654922315525</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2131,31 +2131,31 @@
         <v>238</v>
       </c>
       <c r="B55">
-        <v>-1572.365372178313</v>
+        <v>653.74491340526538</v>
       </c>
       <c r="C55">
-        <v>-1393.928945575502</v>
+        <v>1078.778133243613</v>
       </c>
       <c r="D55">
-        <v>-1380.9327629414961</v>
+        <v>1099.3258236975939</v>
       </c>
       <c r="E55">
-        <v>-1334.04588426025</v>
+        <v>1205.6696103982649</v>
       </c>
       <c r="F55">
-        <v>-1134.7003923721779</v>
+        <v>1751.270301080762</v>
       </c>
       <c r="G55">
-        <v>-962.42652267920221</v>
+        <v>2284.2463395141408</v>
       </c>
       <c r="H55">
-        <v>-1202.1329814297419</v>
+        <v>1542.120712521521</v>
       </c>
       <c r="I55">
-        <v>-1137.315768064901</v>
+        <v>1719.925649993108</v>
       </c>
       <c r="J55">
-        <v>-1017.8003817464401</v>
+        <v>2164.9185161457272</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2163,31 +2163,31 @@
         <v>654</v>
       </c>
       <c r="B56">
-        <v>-1953.3317715714211</v>
+        <v>632.02627046089879</v>
       </c>
       <c r="C56">
-        <v>-1794.6635919628241</v>
+        <v>1028.615826657546</v>
       </c>
       <c r="D56">
-        <v>-1783.8946374462671</v>
+        <v>1042.9132383747601</v>
       </c>
       <c r="E56">
-        <v>-1724.185043228666</v>
+        <v>1193.830746552761</v>
       </c>
       <c r="F56">
-        <v>-1533.8579090072931</v>
+        <v>1854.9487076065011</v>
       </c>
       <c r="G56">
-        <v>-1414.658522532432</v>
+        <v>2266.7428209806571</v>
       </c>
       <c r="H56">
-        <v>-1667.544978468597</v>
+        <v>1346.0553973492649</v>
       </c>
       <c r="I56">
-        <v>-1527.3783385154529</v>
+        <v>1860.6893014605239</v>
       </c>
       <c r="J56">
-        <v>-1434.9698147192471</v>
+        <v>2274.17769055709</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2195,31 +2195,31 @@
         <v>658</v>
       </c>
       <c r="B57">
-        <v>570.22174894662339</v>
+        <v>716.86896937223833</v>
       </c>
       <c r="C57">
-        <v>937.83505824326346</v>
+        <v>1124.8949674590961</v>
       </c>
       <c r="D57">
-        <v>958.75802172855254</v>
+        <v>1146.1448896895399</v>
       </c>
       <c r="E57">
-        <v>1100.8448902362049</v>
+        <v>1304.1970347897659</v>
       </c>
       <c r="F57">
-        <v>1543.664420146534</v>
+        <v>1813.329287471018</v>
       </c>
       <c r="G57">
-        <v>1741.8363196065941</v>
+        <v>2034.078939115547</v>
       </c>
       <c r="H57">
-        <v>1185.7048509730189</v>
+        <v>1394.950203767221</v>
       </c>
       <c r="I57">
-        <v>1541.6931852451689</v>
+        <v>1813.006438151715</v>
       </c>
       <c r="J57">
-        <v>1851.913066130579</v>
+        <v>2152.5292701838598</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2227,31 +2227,31 @@
         <v>126</v>
       </c>
       <c r="B58">
-        <v>-910.067724039685</v>
+        <v>676.91049096034681</v>
       </c>
       <c r="C58">
-        <v>-693.16190838228238</v>
+        <v>1116.4210602532251</v>
       </c>
       <c r="D58">
-        <v>-673.175052725878</v>
+        <v>1155.312203700978</v>
       </c>
       <c r="E58">
-        <v>-608.40858235808673</v>
+        <v>1283.456753942844</v>
       </c>
       <c r="F58">
-        <v>-366.35103138644678</v>
+        <v>1790.739829400841</v>
       </c>
       <c r="G58">
-        <v>-218.20150166477109</v>
+        <v>2163.541310328917</v>
       </c>
       <c r="H58">
-        <v>-492.69419636188718</v>
+        <v>1490.9309829078229</v>
       </c>
       <c r="I58">
-        <v>-369.04445679549468</v>
+        <v>1789.466372005558</v>
       </c>
       <c r="J58">
-        <v>-241.4218565522261</v>
+        <v>2033.220996499467</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2259,31 +2259,31 @@
         <v>284</v>
       </c>
       <c r="B59">
-        <v>185.45825858526109</v>
+        <v>666.57057922366175</v>
       </c>
       <c r="C59">
-        <v>485.4546049676577</v>
+        <v>1062.5346542688969</v>
       </c>
       <c r="D59">
-        <v>475.78554472692178</v>
+        <v>1045.460074154279</v>
       </c>
       <c r="E59">
-        <v>574.82155695053291</v>
+        <v>1180.3880631935181</v>
       </c>
       <c r="F59">
-        <v>1060.751856028465</v>
+        <v>1933.516202529579</v>
       </c>
       <c r="G59">
-        <v>1269.36813490023</v>
+        <v>2224.719680098493</v>
       </c>
       <c r="H59">
-        <v>762.85843385125736</v>
+        <v>1440.6815393827601</v>
       </c>
       <c r="I59">
-        <v>981.34437946615003</v>
+        <v>1817.2271921418981</v>
       </c>
       <c r="J59">
-        <v>1209.5398313029441</v>
+        <v>2128.902015006915</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2291,31 +2291,31 @@
         <v>151</v>
       </c>
       <c r="B60">
-        <v>-1198.8285928768189</v>
+        <v>693.6932890891452</v>
       </c>
       <c r="C60">
-        <v>-998.78756128407008</v>
+        <v>1116.200858941351</v>
       </c>
       <c r="D60">
-        <v>-992.8400698253979</v>
+        <v>1121.273410741034</v>
       </c>
       <c r="E60">
-        <v>-941.75746482417799</v>
+        <v>1230.294211477893</v>
       </c>
       <c r="F60">
-        <v>-715.28846209103608</v>
+        <v>1809.047557601375</v>
       </c>
       <c r="G60">
-        <v>-591.19902637324719</v>
+        <v>2094.5233391294641</v>
       </c>
       <c r="H60">
-        <v>-861.44575791888496</v>
+        <v>1406.8207054580889</v>
       </c>
       <c r="I60">
-        <v>-659.07815260001473</v>
+        <v>1940.282975427212</v>
       </c>
       <c r="J60">
-        <v>-607.66368629514716</v>
+        <v>2087.863652134437</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2323,31 +2323,31 @@
         <v>314</v>
       </c>
       <c r="B61">
-        <v>25.989109411591539</v>
+        <v>660.88741316657217</v>
       </c>
       <c r="C61">
-        <v>332.15963785275841</v>
+        <v>1105.159338638887</v>
       </c>
       <c r="D61">
-        <v>331.04678486277629</v>
+        <v>1103.6663434003999</v>
       </c>
       <c r="E61">
-        <v>414.44259607001908</v>
+        <v>1219.2744123618861</v>
       </c>
       <c r="F61">
-        <v>777.67920712725686</v>
+        <v>1846.8350946746291</v>
       </c>
       <c r="G61">
-        <v>968.87424580118989</v>
+        <v>2114.927652418382</v>
       </c>
       <c r="H61">
-        <v>540.08516659799147</v>
+        <v>1412.352711649917</v>
       </c>
       <c r="I61">
-        <v>856.45626578075462</v>
+        <v>1954.464892776442</v>
       </c>
       <c r="J61">
-        <v>941.5553369721456</v>
+        <v>2082.4321409128829</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2355,31 +2355,31 @@
         <v>611</v>
       </c>
       <c r="B62">
-        <v>659.9936012980462</v>
+        <v>694.81818037694745</v>
       </c>
       <c r="C62">
-        <v>1088.4578504775279</v>
+        <v>1135.0643698985241</v>
       </c>
       <c r="D62">
-        <v>1066.8773349562771</v>
+        <v>1112.2009423534339</v>
       </c>
       <c r="E62">
-        <v>1183.3537979518751</v>
+        <v>1232.3683262009461</v>
       </c>
       <c r="F62">
-        <v>1715.9106674860441</v>
+        <v>1785.3874621472251</v>
       </c>
       <c r="G62">
-        <v>2104.5475705546642</v>
+        <v>2184.578548208171</v>
       </c>
       <c r="H62">
-        <v>1353.600571629705</v>
+        <v>1405.420562555156</v>
       </c>
       <c r="I62">
-        <v>1763.9709814661401</v>
+        <v>1836.725963796483</v>
       </c>
       <c r="J62">
-        <v>2035.680977235173</v>
+        <v>2113.435644463113</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2387,31 +2387,31 @@
         <v>770</v>
       </c>
       <c r="B63">
-        <v>531.28390833280287</v>
+        <v>668.43297546706276</v>
       </c>
       <c r="C63">
-        <v>893.01736433652945</v>
+        <v>1069.0740470346559</v>
       </c>
       <c r="D63">
-        <v>947.2002089836991</v>
+        <v>1128.7526413144481</v>
       </c>
       <c r="E63">
-        <v>1032.3458959968841</v>
+        <v>1219.7068504064371</v>
       </c>
       <c r="F63">
-        <v>1585.216806898648</v>
+        <v>1877.3091482416</v>
       </c>
       <c r="G63">
-        <v>1780.382469394397</v>
+        <v>2084.8359442287101</v>
       </c>
       <c r="H63">
-        <v>1230.7192199106651</v>
+        <v>1447.6899670637199</v>
       </c>
       <c r="I63">
-        <v>1654.8781994447691</v>
+        <v>1949.0980735499661</v>
       </c>
       <c r="J63">
-        <v>1750.8352029853411</v>
+        <v>2055.100352693396</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2419,31 +2419,31 @@
         <v>328</v>
       </c>
       <c r="B64">
-        <v>356.83048043008853</v>
+        <v>698.9604317085674</v>
       </c>
       <c r="C64">
-        <v>695.35752713724628</v>
+        <v>1128.331721389379</v>
       </c>
       <c r="D64">
-        <v>716.09126508195834</v>
+        <v>1152.4144405038321</v>
       </c>
       <c r="E64">
-        <v>814.95129932845271</v>
+        <v>1272.66395052148</v>
       </c>
       <c r="F64">
-        <v>1176.372449957202</v>
+        <v>1761.1181199643379</v>
       </c>
       <c r="G64">
-        <v>1381.3636047449829</v>
+        <v>2010.6770569523351</v>
       </c>
       <c r="H64">
-        <v>952.09946838711221</v>
+        <v>1450.0123157489779</v>
       </c>
       <c r="I64">
-        <v>1335.8602411640461</v>
+        <v>1956.5855427054939</v>
       </c>
       <c r="J64">
-        <v>1426.7243667019529</v>
+        <v>2069.236420505596</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2451,31 +2451,31 @@
         <v>823</v>
       </c>
       <c r="B65">
-        <v>681.76362238007607</v>
+        <v>689.83167024446357</v>
       </c>
       <c r="C65">
-        <v>1143.9765061674259</v>
+        <v>1155.237339665114</v>
       </c>
       <c r="D65">
-        <v>1119.055930032315</v>
+        <v>1129.8623635319491</v>
       </c>
       <c r="E65">
-        <v>1233.4019046276969</v>
+        <v>1245.3677336262499</v>
       </c>
       <c r="F65">
-        <v>1790.9953513439959</v>
+        <v>1807.6844288410491</v>
       </c>
       <c r="G65">
-        <v>1948.280961181503</v>
+        <v>1966.8070895921289</v>
       </c>
       <c r="H65">
-        <v>1397.4897172183089</v>
+        <v>1409.5509740169639</v>
       </c>
       <c r="I65">
-        <v>2001.1640826978769</v>
+        <v>2019.711877532701</v>
       </c>
       <c r="J65">
-        <v>2057.6012914702942</v>
+        <v>2075.946522949378</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2515,31 +2515,31 @@
         <v>666</v>
       </c>
       <c r="B67">
-        <v>-5266.2106131743194</v>
+        <v>698.00708816629572</v>
       </c>
       <c r="C67">
-        <v>-5193.9132808880258</v>
+        <v>1025.498776185661</v>
       </c>
       <c r="D67">
-        <v>-5155.0909146076083</v>
+        <v>1164.223030255931</v>
       </c>
       <c r="E67">
-        <v>-5130.4257786602757</v>
+        <v>1263.379673378289</v>
       </c>
       <c r="F67">
-        <v>-5038.7793676201318</v>
+        <v>1834.47558154885</v>
       </c>
       <c r="G67">
-        <v>-4979.217514654536</v>
+        <v>2174.1495630028958</v>
       </c>
       <c r="H67">
-        <v>-5087.9384903184109</v>
+        <v>1481.058310801536</v>
       </c>
       <c r="I67">
-        <v>-5044.9608387324897</v>
+        <v>1781.0700609373639</v>
       </c>
       <c r="J67">
-        <v>-5028.7862789737201</v>
+        <v>2078.1379157231759</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2547,31 +2547,31 @@
         <v>967</v>
       </c>
       <c r="B68">
-        <v>447.91143850210989</v>
+        <v>672.19832643286043</v>
       </c>
       <c r="C68">
-        <v>843.63508503663047</v>
+        <v>1138.585236736425</v>
       </c>
       <c r="D68">
-        <v>838.05402795747818</v>
+        <v>1132.0735591018899</v>
       </c>
       <c r="E68">
-        <v>920.94776718839637</v>
+        <v>1225.625179174227</v>
       </c>
       <c r="F68">
-        <v>1448.315020105498</v>
+        <v>1900.247885810156</v>
       </c>
       <c r="G68">
-        <v>1651.8422775747081</v>
+        <v>2134.6964026198589</v>
       </c>
       <c r="H68">
-        <v>1054.198635177132</v>
+        <v>1384.395630538495</v>
       </c>
       <c r="I68">
-        <v>1364.511124578326</v>
+        <v>1789.9097405730249</v>
       </c>
       <c r="J68">
-        <v>1638.2357504733591</v>
+        <v>2122.2680390130622</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2579,31 +2579,31 @@
         <v>485</v>
       </c>
       <c r="B69">
-        <v>535.43427282535117</v>
+        <v>680.82814625452329</v>
       </c>
       <c r="C69">
-        <v>930.23507988838742</v>
+        <v>1123.6125088482111</v>
       </c>
       <c r="D69">
-        <v>949.43929860758055</v>
+        <v>1142.755554625832</v>
       </c>
       <c r="E69">
-        <v>1056.580902011526</v>
+        <v>1263.0921553147771</v>
       </c>
       <c r="F69">
-        <v>1474.9852566332479</v>
+        <v>1734.361381498835</v>
       </c>
       <c r="G69">
-        <v>1881.1328416210899</v>
+        <v>2200.7776457125592</v>
       </c>
       <c r="H69">
-        <v>1265.5933543774049</v>
+        <v>1492.6580487679209</v>
       </c>
       <c r="I69">
-        <v>1466.697738252336</v>
+        <v>1728.7374435436609</v>
       </c>
       <c r="J69">
-        <v>1823.630915812377</v>
+        <v>2133.177115433677</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2611,31 +2611,31 @@
         <v>54</v>
       </c>
       <c r="B70">
-        <v>-179.51137176891541</v>
+        <v>667.92704465250654</v>
       </c>
       <c r="C70">
-        <v>96.333285889363623</v>
+        <v>1085.3440205681391</v>
       </c>
       <c r="D70">
-        <v>92.244343717021621</v>
+        <v>1077.5722474467441</v>
       </c>
       <c r="E70">
-        <v>162.2828969070429</v>
+        <v>1186.4277267806449</v>
       </c>
       <c r="F70">
-        <v>485.18193442600688</v>
+        <v>1798.467588155358</v>
       </c>
       <c r="G70">
-        <v>702.20653056207834</v>
+        <v>2197.8034976680528</v>
       </c>
       <c r="H70">
-        <v>284.16825783300578</v>
+        <v>1371.032418035255</v>
       </c>
       <c r="I70">
-        <v>525.77814212407327</v>
+        <v>1875.163026462882</v>
       </c>
       <c r="J70">
-        <v>741.60399151583601</v>
+        <v>2240.2624302304198</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2643,31 +2643,31 @@
         <v>155</v>
       </c>
       <c r="B71">
-        <v>654.04675810935453</v>
+        <v>735.75651329159598</v>
       </c>
       <c r="C71">
-        <v>1032.0367276730001</v>
+        <v>1137.2830694945651</v>
       </c>
       <c r="D71">
-        <v>1094.932690391332</v>
+        <v>1201.3870095898169</v>
       </c>
       <c r="E71">
-        <v>1150.822716963884</v>
+        <v>1263.338498026355</v>
       </c>
       <c r="F71">
-        <v>1769.7094472427029</v>
+        <v>1920.408681029915</v>
       </c>
       <c r="G71">
-        <v>1857.058147619435</v>
+        <v>2013.1075672268839</v>
       </c>
       <c r="H71">
-        <v>1405.9822650341889</v>
+        <v>1532.1225192339609</v>
       </c>
       <c r="I71">
-        <v>1657.9165847830641</v>
+        <v>1805.661566138235</v>
       </c>
       <c r="J71">
-        <v>1743.940732407161</v>
+        <v>1890.9345759686721</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2675,31 +2675,31 @@
         <v>169</v>
       </c>
       <c r="B72">
-        <v>648.58821825647397</v>
+        <v>727.18476777742148</v>
       </c>
       <c r="C72">
-        <v>1034.4497730677331</v>
+        <v>1132.7993940833151</v>
       </c>
       <c r="D72">
-        <v>1018.289268621677</v>
+        <v>1116.718185964467</v>
       </c>
       <c r="E72">
-        <v>1137.6628733696939</v>
+        <v>1240.4971821425161</v>
       </c>
       <c r="F72">
-        <v>1708.222720477858</v>
+        <v>1871.5009269618199</v>
       </c>
       <c r="G72">
-        <v>1842.4597214133501</v>
+        <v>2009.3494980833291</v>
       </c>
       <c r="H72">
-        <v>1279.5862666073181</v>
+        <v>1393.5813750557541</v>
       </c>
       <c r="I72">
-        <v>1774.249177652272</v>
+        <v>1938.2052807637201</v>
       </c>
       <c r="J72">
-        <v>1898.9371769919101</v>
+        <v>2070.1633891676552</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2707,31 +2707,31 @@
         <v>208</v>
       </c>
       <c r="B73">
-        <v>507.2522771959085</v>
+        <v>646.31628811700853</v>
       </c>
       <c r="C73">
-        <v>935.34553416229187</v>
+        <v>1122.260676207195</v>
       </c>
       <c r="D73">
-        <v>908.24194551089147</v>
+        <v>1092.0832986859441</v>
       </c>
       <c r="E73">
-        <v>1024.0609664346521</v>
+        <v>1221.1899799803621</v>
       </c>
       <c r="F73">
-        <v>1474.819306626357</v>
+        <v>1744.617460518411</v>
       </c>
       <c r="G73">
-        <v>1782.3418087499219</v>
+        <v>2100.1306735820858</v>
       </c>
       <c r="H73">
-        <v>1197.2839825101721</v>
+        <v>1409.7787151190221</v>
       </c>
       <c r="I73">
-        <v>1596.7954624839319</v>
+        <v>1888.2484640803209</v>
       </c>
       <c r="J73">
-        <v>1940.3049975380361</v>
+        <v>2275.3744437096552</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2739,31 +2739,31 @@
         <v>733</v>
       </c>
       <c r="B74">
-        <v>205.99429301502269</v>
+        <v>694.42763288506796</v>
       </c>
       <c r="C74">
-        <v>509.67757133996321</v>
+        <v>1100.307835816576</v>
       </c>
       <c r="D74">
-        <v>512.73611843946378</v>
+        <v>1107.2052748447891</v>
       </c>
       <c r="E74">
-        <v>619.29836973484237</v>
+        <v>1244.1314452266081</v>
       </c>
       <c r="F74">
-        <v>1012.06697465705</v>
+        <v>1841.0790817167781</v>
       </c>
       <c r="G74">
-        <v>1197.9945022311199</v>
+        <v>2107.1893031684531</v>
       </c>
       <c r="H74">
-        <v>745.08322643791666</v>
+        <v>1422.442352664528</v>
       </c>
       <c r="I74">
-        <v>977.43618815591378</v>
+        <v>1779.579369741246</v>
       </c>
       <c r="J74">
-        <v>1265.6568846537409</v>
+        <v>2203.6377039359531</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2771,31 +2771,31 @@
         <v>817</v>
       </c>
       <c r="B75">
-        <v>324.58596180465292</v>
+        <v>659.69966328821454</v>
       </c>
       <c r="C75">
-        <v>677.75089633865889</v>
+        <v>1097.8113235576211</v>
       </c>
       <c r="D75">
-        <v>668.89430839722354</v>
+        <v>1089.164226344697</v>
       </c>
       <c r="E75">
-        <v>771.87763657501762</v>
+        <v>1212.0725244402011</v>
       </c>
       <c r="F75">
-        <v>1229.8503435343191</v>
+        <v>1873.3626223719989</v>
       </c>
       <c r="G75">
-        <v>1360.9497143848159</v>
+        <v>2032.3057659709571</v>
       </c>
       <c r="H75">
-        <v>907.47329541932106</v>
+        <v>1392.4344820069871</v>
       </c>
       <c r="I75">
-        <v>1252.0056919902249</v>
+        <v>1891.1924779631011</v>
       </c>
       <c r="J75">
-        <v>1530.2651148078351</v>
+        <v>2251.956914056223</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2803,31 +2803,31 @@
         <v>546</v>
       </c>
       <c r="B76">
-        <v>-3517.6459211945989</v>
+        <v>732.63470554544006</v>
       </c>
       <c r="C76">
-        <v>-3390.6176467784712</v>
+        <v>1127.312604975496</v>
       </c>
       <c r="D76">
-        <v>-3377.7851898920612</v>
+        <v>1196.816612230492</v>
       </c>
       <c r="E76">
-        <v>-3357.2438172617199</v>
+        <v>1268.5511023346301</v>
       </c>
       <c r="F76">
-        <v>-3214.6634314054181</v>
+        <v>1797.561525722449</v>
       </c>
       <c r="G76">
-        <v>-3167.2301608170569</v>
+        <v>2161.956725998321</v>
       </c>
       <c r="H76">
-        <v>-3272.7496732648078</v>
+        <v>1501.877289400675</v>
       </c>
       <c r="I76">
-        <v>-3212.1221555106958</v>
+        <v>1755.4657191020549</v>
       </c>
       <c r="J76">
-        <v>-3165.3926246998471</v>
+        <v>1957.823714690443</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2835,31 +2835,31 @@
         <v>486</v>
       </c>
       <c r="B77">
-        <v>413.65225368760372</v>
+        <v>625.43529339164729</v>
       </c>
       <c r="C77">
-        <v>802.49469162222181</v>
+        <v>1083.598278223119</v>
       </c>
       <c r="D77">
-        <v>820.80925253388091</v>
+        <v>1103.79679945015</v>
       </c>
       <c r="E77">
-        <v>893.39473402946203</v>
+        <v>1185.57057487049</v>
       </c>
       <c r="F77">
-        <v>1409.7545039612289</v>
+        <v>1865.753533194285</v>
       </c>
       <c r="G77">
-        <v>1662.644045006225</v>
+        <v>2156.3284703813169</v>
       </c>
       <c r="H77">
-        <v>1069.500397690555</v>
+        <v>1403.224582398349</v>
       </c>
       <c r="I77">
-        <v>1486.8272167501359</v>
+        <v>1951.454309816713</v>
       </c>
       <c r="J77">
-        <v>1635.4373700985579</v>
+        <v>2124.8381582739262</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2867,31 +2867,31 @@
         <v>774</v>
       </c>
       <c r="B78">
-        <v>533.42692927636813</v>
+        <v>673.94619872328758</v>
       </c>
       <c r="C78">
-        <v>915.22516307559022</v>
+        <v>1090.800095643539</v>
       </c>
       <c r="D78">
-        <v>920.33152620722342</v>
+        <v>1095.6461009380271</v>
       </c>
       <c r="E78">
-        <v>975.28149055390895</v>
+        <v>1157.0453603529229</v>
       </c>
       <c r="F78">
-        <v>1583.108973023998</v>
+        <v>1882.9774632500889</v>
       </c>
       <c r="G78">
-        <v>1894.0776783238409</v>
+        <v>2229.476948715856</v>
       </c>
       <c r="H78">
-        <v>1142.822855720289</v>
+        <v>1339.1543867650289</v>
       </c>
       <c r="I78">
-        <v>1548.1790931593839</v>
+        <v>1844.167507791168</v>
       </c>
       <c r="J78">
-        <v>1858.3466167710601</v>
+        <v>2186.7859378200751</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2899,31 +2899,31 @@
         <v>682</v>
       </c>
       <c r="B79">
-        <v>192.49705298419261</v>
+        <v>670.30879920335678</v>
       </c>
       <c r="C79">
-        <v>517.87324767243615</v>
+        <v>1102.9101365531751</v>
       </c>
       <c r="D79">
-        <v>512.21563088751338</v>
+        <v>1098.5499926934169</v>
       </c>
       <c r="E79">
-        <v>588.41988194139242</v>
+        <v>1194.0718927517401</v>
       </c>
       <c r="F79">
-        <v>974.14804189350139</v>
+        <v>1808.9786700669961</v>
       </c>
       <c r="G79">
-        <v>1132.738256221573</v>
+        <v>2031.150466223077</v>
       </c>
       <c r="H79">
-        <v>703.84223342405471</v>
+        <v>1356.068575215161</v>
       </c>
       <c r="I79">
-        <v>1055.4203256951489</v>
+        <v>1914.4651651347781</v>
       </c>
       <c r="J79">
-        <v>1330.030384946213</v>
+        <v>2323.4963021582962</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2931,31 +2931,31 @@
         <v>174</v>
       </c>
       <c r="B80">
-        <v>26.67690015760239</v>
+        <v>673.8320330567451</v>
       </c>
       <c r="C80">
-        <v>335.00938269990007</v>
+        <v>1130.4594939153619</v>
       </c>
       <c r="D80">
-        <v>344.73679121038771</v>
+        <v>1143.035046141475</v>
       </c>
       <c r="E80">
-        <v>414.7462438587869</v>
+        <v>1240.390267603809</v>
       </c>
       <c r="F80">
-        <v>747.381008117742</v>
+        <v>1764.807091962921</v>
       </c>
       <c r="G80">
-        <v>929.50254570507479</v>
+        <v>2044.1249971516061</v>
       </c>
       <c r="H80">
-        <v>572.12599434285562</v>
+        <v>1478.7872548360499</v>
       </c>
       <c r="I80">
-        <v>771.80337979031322</v>
+        <v>1789.0799703494749</v>
       </c>
       <c r="J80">
-        <v>1040.429147726433</v>
+        <v>2235.483844982557</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2963,31 +2963,31 @@
         <v>958</v>
       </c>
       <c r="B81">
-        <v>234.69489084782029</v>
+        <v>724.68793422677925</v>
       </c>
       <c r="C81">
-        <v>463.96031013105312</v>
+        <v>1020.590952306739</v>
       </c>
       <c r="D81">
-        <v>578.42131576708687</v>
+        <v>1165.422206430409</v>
       </c>
       <c r="E81">
-        <v>624.19704415345075</v>
+        <v>1222.3809906514909</v>
       </c>
       <c r="F81">
-        <v>1108.059955051958</v>
+        <v>1996.3023274375189</v>
       </c>
       <c r="G81">
-        <v>1251.4785977203551</v>
+        <v>2197.4894546061341</v>
       </c>
       <c r="H81">
-        <v>690.36000059634273</v>
+        <v>1317.0136975171281</v>
       </c>
       <c r="I81">
-        <v>941.16935461886874</v>
+        <v>1732.460064946762</v>
       </c>
       <c r="J81">
-        <v>1192.085156689227</v>
+        <v>2123.65237187704</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2995,31 +2995,31 @@
         <v>112</v>
       </c>
       <c r="B82">
-        <v>667.71206025305241</v>
+        <v>675.91124139704971</v>
       </c>
       <c r="C82">
-        <v>1112.0459971548039</v>
+        <v>1122.8803857149121</v>
       </c>
       <c r="D82">
-        <v>1091.069424903161</v>
+        <v>1102.144703220303</v>
       </c>
       <c r="E82">
-        <v>1221.386938839725</v>
+        <v>1232.711878108913</v>
       </c>
       <c r="F82">
-        <v>1780.9297582535669</v>
+        <v>1799.627625136286</v>
       </c>
       <c r="G82">
-        <v>2127.2349323291669</v>
+        <v>2148.7954530574789</v>
       </c>
       <c r="H82">
-        <v>1371.9161979733431</v>
+        <v>1385.1026753856499</v>
       </c>
       <c r="I82">
-        <v>1820.280506081835</v>
+        <v>1838.3011954173639</v>
       </c>
       <c r="J82">
-        <v>2172.668816556687</v>
+        <v>2194.524842562043</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3027,31 +3027,31 @@
         <v>769</v>
       </c>
       <c r="B83">
-        <v>-1582.9474746307001</v>
+        <v>644.87225938437211</v>
       </c>
       <c r="C83">
-        <v>-1417.469241305907</v>
+        <v>1019.521950932903</v>
       </c>
       <c r="D83">
-        <v>-1405.539994526554</v>
+        <v>1036.57248744857</v>
       </c>
       <c r="E83">
-        <v>-1345.340085119162</v>
+        <v>1179.160406710263</v>
       </c>
       <c r="F83">
-        <v>-1120.1135176614871</v>
+        <v>1907.248448364707</v>
       </c>
       <c r="G83">
-        <v>-971.31629563938372</v>
+        <v>2367.055380433912</v>
       </c>
       <c r="H83">
-        <v>-1274.6321344380999</v>
+        <v>1368.6603907806821</v>
       </c>
       <c r="I83">
-        <v>-1100.911023799679</v>
+        <v>1943.282052169799</v>
       </c>
       <c r="J83">
-        <v>-1085.0606338573971</v>
+        <v>2033.6266237747909</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3059,31 +3059,31 @@
         <v>148</v>
       </c>
       <c r="B84">
-        <v>606.53850308023016</v>
+        <v>638.79261474670761</v>
       </c>
       <c r="C84">
-        <v>981.65313370750357</v>
+        <v>1023.562929432034</v>
       </c>
       <c r="D84">
-        <v>1088.910712060273</v>
+        <v>1133.4564996230299</v>
       </c>
       <c r="E84">
-        <v>1129.119742834431</v>
+        <v>1173.6763813002269</v>
       </c>
       <c r="F84">
-        <v>1865.2204728051429</v>
+        <v>1945.091205907966</v>
       </c>
       <c r="G84">
-        <v>2084.2545890508832</v>
+        <v>2168.6014548731569</v>
       </c>
       <c r="H84">
-        <v>1364.47880671597</v>
+        <v>1418.502249500644</v>
       </c>
       <c r="I84">
-        <v>1765.349052002098</v>
+        <v>1839.8815336304019</v>
       </c>
       <c r="J84">
-        <v>2073.1911075486628</v>
+        <v>2158.4351309858339</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3091,31 +3091,31 @@
         <v>664</v>
       </c>
       <c r="B85">
-        <v>750.61982880767812</v>
+        <v>759.87032585052248</v>
       </c>
       <c r="C85">
-        <v>996.02998440229317</v>
+        <v>1006.757849872548</v>
       </c>
       <c r="D85">
-        <v>1131.2894133485711</v>
+        <v>1142.131682261577</v>
       </c>
       <c r="E85">
-        <v>1233.3924428122571</v>
+        <v>1245.8233350853279</v>
       </c>
       <c r="F85">
-        <v>1856.503829417728</v>
+        <v>1874.623902268228</v>
       </c>
       <c r="G85">
-        <v>2060.98970635051</v>
+        <v>2080.8909500247978</v>
       </c>
       <c r="H85">
-        <v>1362.0855784692999</v>
+        <v>1374.446755288953</v>
       </c>
       <c r="I85">
-        <v>1766.359359057072</v>
+        <v>1784.4555719670591</v>
       </c>
       <c r="J85">
-        <v>2210.7478705304361</v>
+        <v>2230.9996273809911</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3123,31 +3123,31 @@
         <v>972</v>
       </c>
       <c r="B86">
-        <v>302.35114262020892</v>
+        <v>638.26686633895702</v>
       </c>
       <c r="C86">
-        <v>602.49788869295594</v>
+        <v>1012.017369414306</v>
       </c>
       <c r="D86">
-        <v>678.49337308503391</v>
+        <v>1099.5651710967741</v>
       </c>
       <c r="E86">
-        <v>752.58166783441118</v>
+        <v>1197.72784037935</v>
       </c>
       <c r="F86">
-        <v>1196.036533746671</v>
+        <v>1832.748799598719</v>
       </c>
       <c r="G86">
-        <v>1470.796847654264</v>
+        <v>2205.1915327518</v>
       </c>
       <c r="H86">
-        <v>876.83862993640946</v>
+        <v>1347.618541017496</v>
       </c>
       <c r="I86">
-        <v>1216.4271857863509</v>
+        <v>1862.504565172688</v>
       </c>
       <c r="J86">
-        <v>1556.0764400551141</v>
+        <v>2304.3593142299069</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3155,31 +3155,31 @@
         <v>5</v>
       </c>
       <c r="B87">
-        <v>182.10297412477999</v>
+        <v>652.24871336156957</v>
       </c>
       <c r="C87">
-        <v>521.36561546674966</v>
+        <v>1128.967947535516</v>
       </c>
       <c r="D87">
-        <v>539.42880129040896</v>
+        <v>1151.89357084531</v>
       </c>
       <c r="E87">
-        <v>626.25118232770058</v>
+        <v>1264.502115743576</v>
       </c>
       <c r="F87">
-        <v>1031.218011630619</v>
+        <v>1845.562970000721</v>
       </c>
       <c r="G87">
-        <v>1230.1936583317829</v>
+        <v>2129.968849967282</v>
       </c>
       <c r="H87">
-        <v>798.17133847472064</v>
+        <v>1504.402018150181</v>
       </c>
       <c r="I87">
-        <v>928.41194214874827</v>
+        <v>1684.6490687963781</v>
       </c>
       <c r="J87">
-        <v>1236.3380111346189</v>
+        <v>2137.8047455994611</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3187,31 +3187,31 @@
         <v>454</v>
       </c>
       <c r="B88">
-        <v>627.94398642105091</v>
+        <v>635.85971837278612</v>
       </c>
       <c r="C88">
-        <v>1084.439114849434</v>
+        <v>1095.152336750959</v>
       </c>
       <c r="D88">
-        <v>1070.2985261694821</v>
+        <v>1081.2845883312939</v>
       </c>
       <c r="E88">
-        <v>1194.7927648887669</v>
+        <v>1205.8669100591619</v>
       </c>
       <c r="F88">
-        <v>1793.247253113349</v>
+        <v>1812.3085121356969</v>
       </c>
       <c r="G88">
-        <v>2163.1081095225591</v>
+        <v>2186.208773814727</v>
       </c>
       <c r="H88">
-        <v>1361.8697809900241</v>
+        <v>1374.947624857341</v>
       </c>
       <c r="I88">
-        <v>1806.576790719884</v>
+        <v>1824.6399390036211</v>
       </c>
       <c r="J88">
-        <v>2260.0047305915682</v>
+        <v>2283.7315966744118</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3219,31 +3219,31 @@
         <v>455</v>
       </c>
       <c r="B89">
-        <v>655.26575300269872</v>
+        <v>689.65896352505763</v>
       </c>
       <c r="C89">
-        <v>1039.274978128673</v>
+        <v>1082.743921647666</v>
       </c>
       <c r="D89">
-        <v>1066.8207961246021</v>
+        <v>1110.1181422479569</v>
       </c>
       <c r="E89">
-        <v>1154.015530173142</v>
+        <v>1200.6779637514589</v>
       </c>
       <c r="F89">
-        <v>1730.0335559299531</v>
+        <v>1801.516964917741</v>
       </c>
       <c r="G89">
-        <v>2072.675960833627</v>
+        <v>2155.3907943196809</v>
       </c>
       <c r="H89">
-        <v>1308.2235555175671</v>
+        <v>1357.1324375307399</v>
       </c>
       <c r="I89">
-        <v>1769.2926281052869</v>
+        <v>1843.7149140829929</v>
       </c>
       <c r="J89">
-        <v>2174.2142577940758</v>
+        <v>2259.0458979767068</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3251,31 +3251,31 @@
         <v>80</v>
       </c>
       <c r="B90">
-        <v>156.7378540367408</v>
+        <v>617.41742555474889</v>
       </c>
       <c r="C90">
-        <v>495.79290178812721</v>
+        <v>1078.8795893015999</v>
       </c>
       <c r="D90">
-        <v>514.98747309766054</v>
+        <v>1102.9118417323621</v>
       </c>
       <c r="E90">
-        <v>577.53570415029378</v>
+        <v>1184.201916858493</v>
       </c>
       <c r="F90">
-        <v>976.28974636841701</v>
+        <v>1824.2702341744721</v>
       </c>
       <c r="G90">
-        <v>1266.589209773447</v>
+        <v>2264.8008301903919</v>
       </c>
       <c r="H90">
-        <v>688.299686767205</v>
+        <v>1337.534522448186</v>
       </c>
       <c r="I90">
-        <v>994.52149451643322</v>
+        <v>1841.1658116866729</v>
       </c>
       <c r="J90">
-        <v>1255.1602969787109</v>
+        <v>2248.817828053071</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3283,31 +3283,31 @@
         <v>429</v>
       </c>
       <c r="B91">
-        <v>23.08647925825651</v>
+        <v>655.48568948114519</v>
       </c>
       <c r="C91">
-        <v>315.75028550841012</v>
+        <v>1075.0683582197371</v>
       </c>
       <c r="D91">
-        <v>314.11801333685872</v>
+        <v>1072.5190634518681</v>
       </c>
       <c r="E91">
-        <v>407.73689773048858</v>
+        <v>1203.704935774037</v>
       </c>
       <c r="F91">
-        <v>782.30561571055694</v>
+        <v>1879.5340977611399</v>
       </c>
       <c r="G91">
-        <v>984.55279888205371</v>
+        <v>2172.4082385838028</v>
       </c>
       <c r="H91">
-        <v>514.20139517597852</v>
+        <v>1370.4360462617669</v>
       </c>
       <c r="I91">
-        <v>834.7343843817273</v>
+        <v>1947.881616523021</v>
       </c>
       <c r="J91">
-        <v>949.24365004895151</v>
+        <v>2122.9619539434771</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3315,31 +3315,31 @@
         <v>16</v>
       </c>
       <c r="B92">
-        <v>294.24834911026608</v>
+        <v>617.29903080987094</v>
       </c>
       <c r="C92">
-        <v>693.695255877715</v>
+        <v>1121.116392223694</v>
       </c>
       <c r="D92">
-        <v>665.35135072398612</v>
+        <v>1086.7113207466509</v>
       </c>
       <c r="E92">
-        <v>732.22110078405808</v>
+        <v>1170.734223003119</v>
       </c>
       <c r="F92">
-        <v>1224.373169394177</v>
+        <v>1867.0548022368059</v>
       </c>
       <c r="G92">
-        <v>1506.430656018151</v>
+        <v>2235.0250646745289</v>
       </c>
       <c r="H92">
-        <v>889.37543329514449</v>
+        <v>1360.0336837107579</v>
       </c>
       <c r="I92">
-        <v>1213.7081139517579</v>
+        <v>1853.1606212442859</v>
       </c>
       <c r="J92">
-        <v>1477.724256743086</v>
+        <v>2188.8648613502878</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3347,31 +3347,31 @@
         <v>46</v>
       </c>
       <c r="B93">
-        <v>502.67140429716233</v>
+        <v>640.51005787894462</v>
       </c>
       <c r="C93">
-        <v>882.71768694089837</v>
+        <v>1061.817307023445</v>
       </c>
       <c r="D93">
-        <v>914.36011580253182</v>
+        <v>1096.9876310875979</v>
       </c>
       <c r="E93">
-        <v>1005.104153858103</v>
+        <v>1195.0682387891079</v>
       </c>
       <c r="F93">
-        <v>1408.750768255067</v>
+        <v>1668.52824171973</v>
       </c>
       <c r="G93">
-        <v>1883.871256068292</v>
+        <v>2240.0355250972461</v>
       </c>
       <c r="H93">
-        <v>1182.2813129873491</v>
+        <v>1396.2817892672849</v>
       </c>
       <c r="I93">
-        <v>1598.0035117673699</v>
+        <v>1893.8683952262629</v>
       </c>
       <c r="J93">
-        <v>1945.8437159527521</v>
+        <v>2306.902813910378</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3379,31 +3379,31 @@
         <v>198</v>
       </c>
       <c r="B94">
-        <v>363.24699160801339</v>
+        <v>711.11951517234161</v>
       </c>
       <c r="C94">
-        <v>675.55419568332422</v>
+        <v>1105.580003711156</v>
       </c>
       <c r="D94">
-        <v>728.41063449519356</v>
+        <v>1167.877100280786</v>
       </c>
       <c r="E94">
-        <v>807.70336283432266</v>
+        <v>1264.3311841722591</v>
       </c>
       <c r="F94">
-        <v>1232.860293783217</v>
+        <v>1829.3249489321161</v>
       </c>
       <c r="G94">
-        <v>1468.3128623518039</v>
+        <v>2120.8577643106591</v>
       </c>
       <c r="H94">
-        <v>988.2228709288047</v>
+        <v>1504.417922837677</v>
       </c>
       <c r="I94">
-        <v>1222.1676318895891</v>
+        <v>1807.8943593874569</v>
       </c>
       <c r="J94">
-        <v>1361.4174813045511</v>
+        <v>1988.5972011955459</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3443,31 +3443,31 @@
         <v>313</v>
       </c>
       <c r="B96">
-        <v>622.1751718477085</v>
+        <v>701.93368001133445</v>
       </c>
       <c r="C96">
-        <v>1046.8171108837421</v>
+        <v>1155.8802763829001</v>
       </c>
       <c r="D96">
-        <v>1051.5259958512229</v>
+        <v>1159.8181759028289</v>
       </c>
       <c r="E96">
-        <v>1175.7354497885431</v>
+        <v>1293.055047414063</v>
       </c>
       <c r="F96">
-        <v>1657.7394511858099</v>
+        <v>1805.7281963589351</v>
       </c>
       <c r="G96">
-        <v>1906.911461394164</v>
+        <v>2068.3813418327641</v>
       </c>
       <c r="H96">
-        <v>1394.0299190522919</v>
+        <v>1521.9297488245279</v>
       </c>
       <c r="I96">
-        <v>1615.5735882038309</v>
+        <v>1762.48021971552</v>
       </c>
       <c r="J96">
-        <v>1873.779474421777</v>
+        <v>2030.7933135571261</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3475,31 +3475,31 @@
         <v>423</v>
       </c>
       <c r="B97">
-        <v>-908.01951155114455</v>
+        <v>675.92141607111557</v>
       </c>
       <c r="C97">
-        <v>-690.6305664702943</v>
+        <v>1118.416893548424</v>
       </c>
       <c r="D97">
-        <v>-670.56293525697538</v>
+        <v>1157.5250653252031</v>
       </c>
       <c r="E97">
-        <v>-606.22475286645988</v>
+        <v>1284.653277678902</v>
       </c>
       <c r="F97">
-        <v>-359.43886550713898</v>
+        <v>1801.0219725235061</v>
       </c>
       <c r="G97">
-        <v>-222.1634451361123</v>
+        <v>2142.4758363298452</v>
       </c>
       <c r="H97">
-        <v>-489.65951178491571</v>
+        <v>1494.614125279003</v>
       </c>
       <c r="I97">
-        <v>-363.26985040932038</v>
+        <v>1799.7524796008231</v>
       </c>
       <c r="J97">
-        <v>-241.32938546297419</v>
+        <v>2025.618933643178</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3507,31 +3507,31 @@
         <v>735</v>
       </c>
       <c r="B98">
-        <v>302.98082490504942</v>
+        <v>635.74718628362859</v>
       </c>
       <c r="C98">
-        <v>630.09777160809153</v>
+        <v>1041.726629469058</v>
       </c>
       <c r="D98">
-        <v>658.55327048029199</v>
+        <v>1077.2579171490929</v>
       </c>
       <c r="E98">
-        <v>735.71432031148254</v>
+        <v>1171.649959805276</v>
       </c>
       <c r="F98">
-        <v>1237.8674052748061</v>
+        <v>1900.279122595739</v>
       </c>
       <c r="G98">
-        <v>1403.312815131535</v>
+        <v>2106.9434643582999</v>
       </c>
       <c r="H98">
-        <v>912.41355277372645</v>
+        <v>1413.030045642319</v>
       </c>
       <c r="I98">
-        <v>1217.959202074321</v>
+        <v>1863.176609484711</v>
       </c>
       <c r="J98">
-        <v>1545.460487240485</v>
+        <v>2290.1890652118768</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3539,31 +3539,31 @@
         <v>281</v>
       </c>
       <c r="B99">
-        <v>613.22175195837769</v>
+        <v>692.14372123820783</v>
       </c>
       <c r="C99">
-        <v>983.34714078185846</v>
+        <v>1082.889044300405</v>
       </c>
       <c r="D99">
-        <v>989.60021827087053</v>
+        <v>1087.916450555527</v>
       </c>
       <c r="E99">
-        <v>1090.694567069062</v>
+        <v>1196.381969997783</v>
       </c>
       <c r="F99">
-        <v>1634.184987276137</v>
+        <v>1794.561781446348</v>
       </c>
       <c r="G99">
-        <v>1915.6719705372029</v>
+        <v>2096.5915570675752</v>
       </c>
       <c r="H99">
-        <v>1296.040755527569</v>
+        <v>1412.897794258633</v>
       </c>
       <c r="I99">
-        <v>1726.6402412553859</v>
+        <v>1895.943098816585</v>
       </c>
       <c r="J99">
-        <v>2053.7255364587372</v>
+        <v>2240.674582318934</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3571,31 +3571,31 @@
         <v>178</v>
       </c>
       <c r="B100">
-        <v>-6422.5597484806694</v>
+        <v>849.41113126509299</v>
       </c>
       <c r="C100">
-        <v>-6369.7794503492914</v>
+        <v>1100.813039884084</v>
       </c>
       <c r="D100">
-        <v>-6321.8271565642071</v>
+        <v>1277.236098316384</v>
       </c>
       <c r="E100">
-        <v>-6307.7792748107258</v>
+        <v>1352.586054334934</v>
       </c>
       <c r="F100">
-        <v>-6249.9073907205393</v>
+        <v>1807.2001377516831</v>
       </c>
       <c r="G100">
-        <v>-6208.1872515685409</v>
+        <v>1996.611847624685</v>
       </c>
       <c r="H100">
-        <v>-6307.9563241562892</v>
+        <v>1389.3692321218721</v>
       </c>
       <c r="I100">
-        <v>-6258.9846960847017</v>
+        <v>1704.59032806402</v>
       </c>
       <c r="J100">
-        <v>-6235.7616803321707</v>
+        <v>2022.182130637246</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3603,69 +3603,69 @@
         <v>592</v>
       </c>
       <c r="B101">
-        <v>555.46147131372368</v>
+        <v>629.3854293186904</v>
       </c>
       <c r="C101">
-        <v>963.87138785414334</v>
+        <v>1062.8483306537621</v>
       </c>
       <c r="D101">
-        <v>986.66985829047985</v>
+        <v>1087.5618336651339</v>
       </c>
       <c r="E101">
-        <v>1113.682632072972</v>
+        <v>1220.8280390245891</v>
       </c>
       <c r="F101">
-        <v>1625.4272192961089</v>
+        <v>1789.7804485120371</v>
       </c>
       <c r="G101">
-        <v>2019.0157869855141</v>
+        <v>2214.5769758660831</v>
       </c>
       <c r="H101">
-        <v>1283.4275816996819</v>
+        <v>1405.142131966546</v>
       </c>
       <c r="I101">
-        <v>1704.606460710665</v>
+        <v>1872.423075296394</v>
       </c>
       <c r="J101">
-        <v>2022.614993742606</v>
+        <v>2217.4537356967639</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="B102">
         <f>SUM(B2:B101)/100</f>
-        <v>-121.80354656462455</v>
+        <v>682.5101670184315</v>
       </c>
       <c r="C102">
         <f t="shared" ref="C102:J102" si="0">SUM(C2:C101)/100</f>
-        <v>345.25230260141177</v>
+        <v>1092.2658656188578</v>
       </c>
       <c r="D102">
         <f t="shared" si="0"/>
-        <v>490.67234152398771</v>
+        <v>1127.4472241350516</v>
       </c>
       <c r="E102">
         <f t="shared" si="0"/>
-        <v>572.14711878221044</v>
+        <v>1230.5771075823698</v>
       </c>
       <c r="F102">
         <f t="shared" si="0"/>
-        <v>1356.0256116116864</v>
+        <v>1845.3158635499419</v>
       </c>
       <c r="G102">
         <f t="shared" si="0"/>
-        <v>1646.1798722774129</v>
+        <v>2148.415238360084</v>
       </c>
       <c r="H102">
         <f t="shared" si="0"/>
-        <v>673.10601459752695</v>
+        <v>1400.2725394150134</v>
       </c>
       <c r="I102">
         <f t="shared" si="0"/>
-        <v>-1722018.5492704613</v>
+        <v>1826.8176443397249</v>
       </c>
       <c r="J102">
         <f t="shared" si="0"/>
-        <v>1615.0572282373821</v>
+        <v>2146.3783499805249</v>
       </c>
     </row>
   </sheetData>
